--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5011000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5578000</v>
+      </c>
+      <c r="F8" s="3">
         <v>5768000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6221000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6004000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6126000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5943000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6132000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5570000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5476000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5285000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5078000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4589000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4503000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3717000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4265000</v>
+      </c>
+      <c r="F9" s="3">
         <v>4274000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4580000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4472000</v>
       </c>
       <c r="G9" s="3">
         <v>4580000</v>
       </c>
       <c r="H9" s="3">
+        <v>4472000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="J9" s="3">
         <v>4392000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4692000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4370000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4100000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3944000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3827000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3457000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3383000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1494000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1641000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1532000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1546000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1551000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1440000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1200000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1376000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1341000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1251000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1132000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1120000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>271000</v>
+      </c>
+      <c r="F12" s="3">
         <v>242000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>251000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>237000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>244000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>229000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>219000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>210000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>208000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>213000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>175000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>158000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>158000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,52 +1001,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,22 +1087,28 @@
         <v>5000</v>
       </c>
       <c r="L15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N15" s="3">
         <v>4000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2000</v>
       </c>
       <c r="P15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4377000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5224000</v>
+      </c>
+      <c r="F17" s="3">
         <v>5069000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5373000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5205000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5395000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5140000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5410000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5040000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4890000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4663000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4492000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4049000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3979000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>354000</v>
+      </c>
+      <c r="F18" s="3">
         <v>699000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>848000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>799000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>731000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>803000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>722000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>530000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>586000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>622000</v>
       </c>
       <c r="M18" s="3">
         <v>586000</v>
       </c>
       <c r="N18" s="3">
+        <v>622000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>586000</v>
+      </c>
+      <c r="P18" s="3">
         <v>540000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>524000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F20" s="3">
         <v>82000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>52000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>78000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>32000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>21000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>17000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>34000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>18000</v>
       </c>
       <c r="M20" s="3">
         <v>34000</v>
       </c>
       <c r="N20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>34000</v>
+      </c>
+      <c r="P20" s="3">
         <v>26000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>564000</v>
+      </c>
+      <c r="F21" s="3">
         <v>959000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1058000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1034000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>897000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>983000</v>
       </c>
       <c r="I21" s="3">
         <v>897000</v>
       </c>
       <c r="J21" s="3">
+        <v>983000</v>
+      </c>
+      <c r="K21" s="3">
+        <v>897000</v>
+      </c>
+      <c r="L21" s="3">
         <v>701000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>770000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>789000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>765000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>705000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>665000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F22" s="3">
         <v>26000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>32000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>32000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>30000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>24000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>24000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>18000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>21000</v>
       </c>
       <c r="N22" s="3">
         <v>18000</v>
       </c>
       <c r="O22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="P22" s="3">
         <v>18000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>655000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>363000</v>
+      </c>
+      <c r="F23" s="3">
         <v>755000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>871000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>845000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>710000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>805000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>715000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>523000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>596000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>622000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>599000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>548000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>508000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F24" s="3">
         <v>139000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>186000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>176000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>171000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>141000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>155000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>124000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>124000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>165000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>158000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>143000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>112000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F26" s="3">
         <v>616000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>685000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>669000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>539000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>664000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>560000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>399000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>472000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>457000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>441000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>405000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>396000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F27" s="3">
         <v>622000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>675000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>663000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>508000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>658000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>551000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>399000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>507000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>453000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>424000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>396000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>378000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,40 +1688,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
         <v>71000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>34000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-6000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-74000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-82000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-52000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-78000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-32000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-21000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-17000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-34000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-18000</v>
       </c>
       <c r="M32" s="3">
         <v>-34000</v>
       </c>
       <c r="N32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-26000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F33" s="3">
         <v>622000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>675000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>663000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>579000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>692000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>545000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>325000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-274000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>453000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>424000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>396000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>378000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F35" s="3">
         <v>622000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>675000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>663000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>579000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>692000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>545000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>325000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-274000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>453000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>424000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>396000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>378000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,404 +2137,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1691000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1560000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1397000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1328000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1303000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1222000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1318000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1207000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1369000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1290000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1293000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1322000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1120000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>341000</v>
+      </c>
+      <c r="F42" s="3">
         <v>303000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>335000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>246000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>222000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>185000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>214000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>180000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>198000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>154000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>174000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>145000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>260000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3505000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3670000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3934000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4179000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4025000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3866000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3929000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4095000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3845000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3618000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3810000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3553000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3247000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3025000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3579000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3486000</v>
+      </c>
+      <c r="F44" s="3">
         <v>3821000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3896000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3893000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3759000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3831000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3559000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3411000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3166000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3146000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2982000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2894000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2675000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>761000</v>
+      </c>
+      <c r="F45" s="3">
         <v>610000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>643000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>599000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>668000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>696000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>649000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>558000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>577000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>656000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>551000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>627000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9790000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9387000</v>
+      </c>
+      <c r="F46" s="3">
         <v>10228000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10450000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10091000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9818000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9863000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9835000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9201000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8928000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9056000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8602000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8159000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7707000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1304000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="F47" s="3">
         <v>1250000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1274000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1303000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1222000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1255000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1303000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1288000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1156000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1213000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1162000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1059000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>946000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4128000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4741000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4502000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4511000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4482000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4096000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3870000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3824000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3892000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3927000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3816000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3787000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3802000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3800000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2248000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2289000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2310000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2026000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2020000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2035000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2060000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2019000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2045000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2055000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2000000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>827000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>827000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>812000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2683,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2606000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2083000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2056000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1993000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1950000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1891000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1944000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1934000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1966000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2009000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1907000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1882000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1787000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1746000</v>
       </c>
       <c r="P52" s="3">
         <v>1787000</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>1746000</v>
+      </c>
+      <c r="R52" s="3">
+        <v>1787000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20076000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19737000</v>
+      </c>
+      <c r="F54" s="3">
         <v>20346000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20254000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19846000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>19062000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>18992000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>18915000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18392000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18075000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17992000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16260000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15634000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>15011000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2877,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2648000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2534000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2830000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2991000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3018000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2822000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2980000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2981000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2854000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2579000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2486000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2300000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2168000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1854000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>791000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1042000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>599000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>816000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>879000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>902000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>906000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>706000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>418000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>640000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>233000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>369000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>288000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2563000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2935000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2853000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2699000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2593000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2683000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2534000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2217000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2272000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2680000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2632000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2361000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2125000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2183000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6982000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6260000</v>
+      </c>
+      <c r="F60" s="3">
         <v>6725000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6289000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6427000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6384000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6416000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6104000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5832000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5677000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5758000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4894000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4662000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4325000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1580000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1619000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1624000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1605000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1597000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1563000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1556000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1571000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1588000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1615000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1564000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1576000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1568000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3496000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3436000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3249000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3145000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3087000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2822000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2953000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3061000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2693000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2646000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2058000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1980000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1920000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1944000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13008000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12230000</v>
+      </c>
+      <c r="F66" s="3">
         <v>12536000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11976000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12026000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11714000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11801000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11616000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10998000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10816000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10363000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8767000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8469000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8136000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14728000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>14416000</v>
+      </c>
+      <c r="F72" s="3">
         <v>14315000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>13897000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>13401000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>12917000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>12519000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>12009000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>11641000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>11464000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>11791000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11517000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>11265000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>11040000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7068000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7507000</v>
+      </c>
+      <c r="F76" s="3">
         <v>7810000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8278000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7820000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7348000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7191000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7299000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7394000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7259000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7629000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7493000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7165000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6875000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F81" s="3">
         <v>622000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>675000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>663000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>579000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>692000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>545000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>325000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-274000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>453000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>424000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>396000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>378000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>179000</v>
+      </c>
+      <c r="F83" s="3">
         <v>178000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>158000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>157000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>155000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>148000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>154000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>154000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>150000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>149000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>145000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>139000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>139000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>838000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1123000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>808000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>412000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>990000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>915000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>590000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-117000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>806000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>645000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>447000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>379000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>625000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-305000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-153000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-133000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-109000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-348000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-175000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-114000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-72000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-224000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-101000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-108000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-480000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-418000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-340000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-71000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-455000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-283000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-266000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-626000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-133000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-27000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-327000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,52 +4612,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-204000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-179000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-179000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-181000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-182000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-177000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-178000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-179000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-179000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-172000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-171000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-171000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-897000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-487000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-364000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-347000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-440000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-707000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-201000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-52000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-474000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-56000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-380000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-164000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-368000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-55000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-35000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>31000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-14000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-21000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-78000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>43000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>34000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>37000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>14000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-61000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-431000</v>
+      </c>
+      <c r="F102" s="3">
         <v>163000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>69000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>25000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>81000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-96000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>111000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-162000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>79000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-29000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>202000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-131000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3852000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5011000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5578000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5768000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6221000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6004000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6126000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5943000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6132000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5570000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5476000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5285000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5078000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4589000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4503000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2962000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3717000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4265000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4274000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4580000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4472000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4580000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4392000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4692000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4370000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4100000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3944000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3827000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3457000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3383000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1294000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1313000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1494000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1641000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1532000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1546000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1551000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1440000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1200000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1376000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1341000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1251000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1132000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1120000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>238000</v>
+        <v>25000</v>
       </c>
       <c r="E12" s="3">
-        <v>271000</v>
+        <v>70000</v>
       </c>
       <c r="F12" s="3">
-        <v>242000</v>
+        <v>93000</v>
       </c>
       <c r="G12" s="3">
-        <v>251000</v>
+        <v>65000</v>
       </c>
       <c r="H12" s="3">
-        <v>237000</v>
+        <v>93000</v>
       </c>
       <c r="I12" s="3">
-        <v>244000</v>
+        <v>81000</v>
       </c>
       <c r="J12" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K12" s="3">
         <v>229000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>219000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>210000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>208000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>213000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>175000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>158000</v>
       </c>
       <c r="Q12" s="3">
         <v>158000</v>
       </c>
       <c r="R12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="S12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,81 +1024,87 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>121000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>1000</v>
       </c>
       <c r="Q14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="3">
         <v>-13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5000</v>
+        <v>170000</v>
       </c>
       <c r="E15" s="3">
-        <v>5000</v>
+        <v>173000</v>
       </c>
       <c r="F15" s="3">
-        <v>5000</v>
+        <v>183000</v>
       </c>
       <c r="G15" s="3">
-        <v>5000</v>
+        <v>182000</v>
       </c>
       <c r="H15" s="3">
-        <v>5000</v>
+        <v>163000</v>
       </c>
       <c r="I15" s="3">
-        <v>5000</v>
+        <v>161000</v>
       </c>
       <c r="J15" s="3">
-        <v>5000</v>
+        <v>159000</v>
       </c>
       <c r="K15" s="3">
         <v>5000</v>
@@ -1093,13 +1116,13 @@
         <v>5000</v>
       </c>
       <c r="N15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O15" s="3">
         <v>4000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2000</v>
       </c>
       <c r="Q15" s="3">
         <v>2000</v>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3516000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4377000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5224000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5069000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5373000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5205000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5395000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5140000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5410000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5040000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4890000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4663000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4492000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4049000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3979000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E18" s="3">
         <v>634000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>354000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>699000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>848000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>799000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>731000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>803000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>722000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>530000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>586000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>622000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>586000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>540000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>524000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,108 +1277,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E20" s="3">
         <v>44000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>82000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>52000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>78000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>32000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E21" s="3">
         <v>846000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>564000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>959000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1058000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1034000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>897000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>983000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>897000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>701000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>770000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>789000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>765000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>705000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>665000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,149 +1393,158 @@
         <v>23000</v>
       </c>
       <c r="E22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F22" s="3">
         <v>22000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>32000</v>
       </c>
       <c r="I22" s="3">
         <v>32000</v>
       </c>
       <c r="J22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K22" s="3">
         <v>30000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>24000</v>
       </c>
       <c r="M22" s="3">
         <v>24000</v>
       </c>
       <c r="N22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="O22" s="3">
         <v>18000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>18000</v>
       </c>
       <c r="Q22" s="3">
         <v>18000</v>
       </c>
       <c r="R22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="S22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E23" s="3">
         <v>655000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>363000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>755000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>871000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>845000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>710000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>805000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>715000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>523000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>596000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>622000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>599000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>548000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>508000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E24" s="3">
         <v>127000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>139000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>186000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>176000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>171000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>141000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>155000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>124000</v>
       </c>
       <c r="M24" s="3">
         <v>124000</v>
       </c>
       <c r="N24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="O24" s="3">
         <v>165000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>158000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>143000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>112000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E26" s="3">
         <v>528000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>298000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>616000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>685000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>669000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>539000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>664000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>560000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>399000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>472000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>457000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>441000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>405000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>396000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E27" s="3">
         <v>511000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>622000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>675000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>663000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>508000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>658000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>551000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>399000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>507000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>453000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>424000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>396000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>378000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,19 +1752,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1714,23 +1775,23 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <v>71000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>34000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-74000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-44000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-82000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-52000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-78000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-32000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E33" s="3">
         <v>511000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>622000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>675000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>663000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>579000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>692000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>545000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>325000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-274000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>453000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>424000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>396000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>378000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E35" s="3">
         <v>511000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>622000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>675000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>663000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>579000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>692000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>545000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>325000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-274000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>453000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>424000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>396000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>378000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,458 +2225,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1691000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1129000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1560000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1397000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1328000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1303000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1222000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1318000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1207000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1369000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1290000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1293000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1322000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1120000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E42" s="3">
         <v>339000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>341000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>303000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>335000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>246000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>222000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>185000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>214000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>180000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>198000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>154000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>174000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>145000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>260000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3441000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3505000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3670000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3934000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4179000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4025000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3866000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3929000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4095000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3845000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3618000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3810000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3553000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3247000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3025000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3655000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3579000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3486000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3821000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3896000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3893000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3759000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3831000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3559000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3411000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3166000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3146000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2982000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2894000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2675000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E45" s="3">
         <v>676000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>761000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>610000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>643000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>599000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>668000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>696000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>649000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>558000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>577000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>656000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>551000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>627000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9834000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9790000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9387000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10228000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10450000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10091000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9818000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9863000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9835000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9201000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8928000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9056000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8602000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8159000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7707000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1304000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1237000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1250000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1274000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1303000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1222000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1255000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1303000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1288000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1156000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1213000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1162000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1059000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>946000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4067000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4128000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4741000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4502000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4511000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4482000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4096000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3870000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3824000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3892000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3927000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3816000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3787000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3802000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3800000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2301000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2248000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2289000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2310000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2026000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2020000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2035000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2060000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2019000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2045000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2055000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>827000</v>
       </c>
       <c r="P49" s="3">
         <v>827000</v>
       </c>
       <c r="Q49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="R49" s="3">
         <v>812000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2750000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2606000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2083000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2056000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1993000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1950000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1891000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1944000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1934000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1966000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2009000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1907000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1882000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1787000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1746000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20314000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20076000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19737000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20346000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20254000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19846000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19062000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18992000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18915000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18392000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18075000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17992000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16260000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15634000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15011000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2281000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2648000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2534000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2830000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2991000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3018000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2822000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2980000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2981000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2854000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2579000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2486000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2168000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1854000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2202000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1771000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>791000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1042000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>599000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>816000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>879000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>902000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>906000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>706000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>418000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>640000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>233000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>369000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>288000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2433000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2563000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2935000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2853000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2699000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2593000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2683000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2534000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2217000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2272000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2680000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2632000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2361000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2125000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2183000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6916000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6982000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6260000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6725000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6289000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6427000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6384000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6416000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6104000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5832000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5677000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5758000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4894000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4662000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4325000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1580000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1576000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1619000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1624000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1605000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1597000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1563000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1556000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1571000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1588000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1615000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1564000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1576000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1568000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3629000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3496000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3436000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3249000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3145000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3087000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2822000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2953000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3061000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2693000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2646000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2058000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1980000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1920000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1944000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13122000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13008000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12230000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12536000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11976000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12026000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11714000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11801000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11616000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10998000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10816000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10363000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8767000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8469000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8136000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14811000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14728000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14416000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14315000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13897000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13401000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12917000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12519000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12009000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11641000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11464000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11791000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11517000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11265000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11040000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7192000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7068000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7507000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7810000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8278000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7820000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7348000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7191000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7299000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7394000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7259000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7629000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7493000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7165000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6875000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E81" s="3">
         <v>511000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>622000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>675000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>663000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>579000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>692000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>545000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>325000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-274000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>453000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>424000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>396000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>378000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E83" s="3">
         <v>168000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>179000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>178000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>158000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>157000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>155000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>148000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>154000</v>
       </c>
       <c r="L83" s="3">
         <v>154000</v>
       </c>
       <c r="M83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="N83" s="3">
         <v>150000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>149000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>145000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>139000</v>
       </c>
       <c r="Q83" s="3">
         <v>139000</v>
       </c>
       <c r="R83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="S83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E89" s="3">
         <v>379000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>838000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1123000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>808000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>412000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>990000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>915000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>590000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-117000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>806000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>645000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>447000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>379000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>625000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-75000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-305000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-153000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-133000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-109000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-348000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-175000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-114000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-72000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-224000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-101000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-108000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-480000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-99000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-321000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-418000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-340000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-71000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-455000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-283000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-266000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-626000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-133000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-327000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,58 +4847,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-195000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-199000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-179000</v>
       </c>
       <c r="H96" s="3">
         <v>-179000</v>
       </c>
       <c r="I96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-181000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-182000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-177000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-179000</v>
       </c>
       <c r="N96" s="3">
         <v>-179000</v>
       </c>
       <c r="O96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-171000</v>
       </c>
       <c r="Q96" s="3">
         <v>-171000</v>
       </c>
       <c r="R96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E100" s="3">
         <v>234000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-897000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-487000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-364000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-347000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-440000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-707000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-201000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-474000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-380000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-164000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-368000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>48000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-51000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-55000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-35000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>31000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-21000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-78000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>43000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>34000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>37000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>14000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-61000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E102" s="3">
         <v>562000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-431000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>163000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>69000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>81000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-96000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>111000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-162000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>79000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-29000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>202000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-131000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5118000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3852000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5011000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5578000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5768000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6221000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6004000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6126000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5943000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6132000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5570000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5476000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5285000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5078000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4589000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4503000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3769000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2962000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3717000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4265000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4274000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4580000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4472000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4580000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4392000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4692000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4370000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4100000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3944000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3827000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3457000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3383000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="E10" s="3">
         <v>890000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1294000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1313000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1494000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1641000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1532000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1546000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1551000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1440000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1376000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1341000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1251000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1132000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1120000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>70000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>93000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>93000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>81000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>90000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>229000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>219000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>210000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>208000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>213000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>175000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>158000</v>
       </c>
       <c r="R12" s="3">
         <v>158000</v>
       </c>
       <c r="S12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="T12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,61 +1044,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>121000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>1000</v>
       </c>
       <c r="R14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="3">
         <v>-13000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1089,25 +1112,25 @@
         <v>170000</v>
       </c>
       <c r="E15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F15" s="3">
         <v>173000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>183000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>182000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>163000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>161000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>159000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5000</v>
       </c>
       <c r="L15" s="3">
         <v>5000</v>
@@ -1119,13 +1142,13 @@
         <v>5000</v>
       </c>
       <c r="O15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P15" s="3">
         <v>4000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2000</v>
       </c>
       <c r="R15" s="3">
         <v>2000</v>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4448000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3516000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4377000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5224000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5069000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5373000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5205000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5395000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5140000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5410000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5040000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4890000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4663000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4492000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4049000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3979000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E18" s="3">
         <v>336000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>634000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>354000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>699000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>848000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>799000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>731000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>803000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>722000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>530000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>586000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>622000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>586000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>540000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>524000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,273 +1311,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E20" s="3">
         <v>49000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>44000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>31000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>82000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>52000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>78000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E21" s="3">
         <v>550000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>846000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>564000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>959000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1058000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1034000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>897000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>983000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>897000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>701000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>770000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>789000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>765000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>705000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>665000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="E22" s="3">
         <v>23000</v>
       </c>
       <c r="F22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G22" s="3">
         <v>22000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>32000</v>
       </c>
       <c r="J22" s="3">
         <v>32000</v>
       </c>
       <c r="K22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="L22" s="3">
         <v>30000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>24000</v>
       </c>
       <c r="N22" s="3">
         <v>24000</v>
       </c>
       <c r="O22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="P22" s="3">
         <v>18000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>18000</v>
       </c>
       <c r="R22" s="3">
         <v>18000</v>
       </c>
       <c r="S22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="T22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E23" s="3">
         <v>362000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>655000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>363000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>755000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>871000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>845000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>710000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>805000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>715000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>523000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>596000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>622000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>599000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>548000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>508000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E24" s="3">
         <v>93000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>127000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>65000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>139000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>186000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>176000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>171000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>141000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>155000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>124000</v>
       </c>
       <c r="N24" s="3">
         <v>124000</v>
       </c>
       <c r="O24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="P24" s="3">
         <v>165000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>158000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>143000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>112000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E26" s="3">
         <v>269000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>528000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>298000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>616000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>685000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>669000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>539000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>664000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>560000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>399000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>472000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>457000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>441000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>405000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>396000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E27" s="3">
         <v>276000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>511000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>622000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>675000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>663000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>508000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>658000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>551000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>399000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>507000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>453000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>424000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>396000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>378000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1766,11 +1827,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1778,23 +1839,23 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>71000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>34000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-74000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-49000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-44000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-31000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-82000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-52000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-78000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E33" s="3">
         <v>276000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>511000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>622000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>675000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>663000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>579000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>692000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>545000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>325000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-274000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>453000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>424000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>396000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>378000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E35" s="3">
         <v>276000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>511000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>622000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>675000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>663000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>579000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>692000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>545000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>325000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-274000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>453000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>424000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>396000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>378000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,485 +2312,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2967000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1751000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1691000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1129000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1560000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1397000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1328000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1303000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1222000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1318000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1207000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1369000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1290000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1293000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1322000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1120000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E42" s="3">
         <v>353000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>339000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>341000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>303000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>335000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>246000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>222000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>185000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>214000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>180000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>198000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>154000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>174000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>145000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>260000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3628000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3441000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3505000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3670000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3934000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4179000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4025000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3866000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3929000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4095000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3845000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3618000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3810000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3553000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3247000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3025000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3470000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3655000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3579000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3486000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3821000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3896000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3893000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3759000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3831000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3559000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3411000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3166000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3146000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2982000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2894000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2675000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E45" s="3">
         <v>634000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>676000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>761000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>610000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>643000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>599000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>668000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>696000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>649000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>558000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>577000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>656000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>551000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>627000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11062000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9834000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9790000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9387000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10228000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10450000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10091000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9818000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9863000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9835000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9201000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8928000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9056000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8602000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8159000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7707000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1418000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1362000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1304000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1237000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1250000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1274000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1303000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1222000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1255000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1303000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1288000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1156000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1213000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1162000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1059000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>946000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4087000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4067000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4128000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4741000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4502000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4511000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4482000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4096000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3870000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3824000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3892000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3927000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3816000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3787000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3802000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3800000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2278000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2301000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2248000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2289000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2310000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2026000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2020000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2035000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2060000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2019000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2045000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2055000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>827000</v>
       </c>
       <c r="Q49" s="3">
         <v>827000</v>
       </c>
       <c r="R49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="S49" s="3">
         <v>812000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2723000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2750000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2606000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2083000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2056000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1993000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1950000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1891000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1944000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1934000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1966000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2009000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1907000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1882000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1787000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1746000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21568000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20314000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20076000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19737000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20346000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20254000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19846000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19062000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18992000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18915000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18392000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18075000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17992000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16260000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15634000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15011000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2597000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2281000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2648000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2534000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2830000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2991000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3018000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2822000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2980000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2981000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2854000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2579000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2486000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2168000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1854000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>503000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2202000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1771000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>791000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1042000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>599000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>816000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>879000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>902000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>906000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>706000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>418000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>640000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>233000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>369000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>288000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2609000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2433000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2563000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2935000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2853000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2699000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2593000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2683000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2534000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2217000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2272000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2680000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2632000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2361000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2125000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2183000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5709000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6916000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6982000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6260000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6725000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6289000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6427000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6384000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6416000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6104000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5832000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5677000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5758000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4894000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4662000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4325000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3609000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1639000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1580000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1576000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1619000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1624000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1605000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1597000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1563000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1556000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1571000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1588000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1615000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1564000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1576000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1568000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3609000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3629000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3496000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3436000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3249000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3145000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3087000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2822000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2953000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3061000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2693000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2646000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2058000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1980000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1920000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1944000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13868000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13122000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13008000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12230000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12536000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11976000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12026000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11714000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11801000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11616000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10998000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10816000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10363000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8767000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8469000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8136000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15118000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14811000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14728000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14416000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14315000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13897000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13401000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12917000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12519000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12009000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11641000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11464000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11791000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11517000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11265000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11040000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7700000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7192000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7068000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7507000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7810000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8278000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7820000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7348000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7191000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7299000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7394000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7259000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7629000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7493000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7165000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6875000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E81" s="3">
         <v>276000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>511000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>622000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>675000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>663000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>579000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>692000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>545000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>325000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-274000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>453000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>424000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>396000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>378000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E83" s="3">
         <v>165000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>168000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>179000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>178000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>158000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>157000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>155000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>148000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>154000</v>
       </c>
       <c r="M83" s="3">
         <v>154000</v>
       </c>
       <c r="N83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="O83" s="3">
         <v>150000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>149000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>145000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>139000</v>
       </c>
       <c r="R83" s="3">
         <v>139000</v>
       </c>
       <c r="S83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="T83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1223000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>379000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>838000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1123000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>808000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>412000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>990000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>915000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>590000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-117000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>806000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>645000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>447000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>379000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>625000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-77000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-75000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-305000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-153000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-133000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-109000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-348000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-175000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-114000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-72000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-224000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-108000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-480000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-135000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-99000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-321000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-418000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-340000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-71000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-455000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-283000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-266000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-626000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-327000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,61 +5081,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-194000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-193000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-195000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-199000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-179000</v>
       </c>
       <c r="I96" s="3">
         <v>-179000</v>
       </c>
       <c r="J96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-181000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-182000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-177000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-179000</v>
       </c>
       <c r="O96" s="3">
         <v>-179000</v>
       </c>
       <c r="P96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-171000</v>
       </c>
       <c r="R96" s="3">
         <v>-171000</v>
       </c>
       <c r="S96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E100" s="3">
         <v>226000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>234000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-897000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-487000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-364000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-347000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-440000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-707000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-201000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-52000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-474000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-380000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-164000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-368000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>48000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-51000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-55000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-35000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>31000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-78000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>43000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>34000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>37000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>14000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-61000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E102" s="3">
         <v>60000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>562000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-431000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>163000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>69000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>81000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-96000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>111000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-162000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>79000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>202000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-131000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5830000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5118000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3852000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5011000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5578000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5768000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6221000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6004000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6126000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5943000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6132000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5570000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5476000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5285000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5078000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4589000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4503000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4469000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3769000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2962000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3717000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4265000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4274000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4580000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4472000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4580000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4392000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4692000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4370000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4100000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3944000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3827000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3457000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3383000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1349000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>890000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1294000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1313000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1494000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1641000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1532000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1546000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1551000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1440000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1376000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1341000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1251000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1132000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1120000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E12" s="3">
         <v>59000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>70000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>93000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>65000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>93000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>81000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>90000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>229000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>219000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>210000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>208000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>213000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>175000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>158000</v>
       </c>
       <c r="S12" s="3">
         <v>158000</v>
       </c>
       <c r="T12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="U12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,93 +1063,99 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>121000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>1000</v>
       </c>
       <c r="S14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T14" s="3">
         <v>-13000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>170000</v>
+        <v>179000</v>
       </c>
       <c r="E15" s="3">
         <v>170000</v>
       </c>
       <c r="F15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="G15" s="3">
         <v>173000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>183000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>182000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>163000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>161000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>159000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5000</v>
       </c>
       <c r="M15" s="3">
         <v>5000</v>
@@ -1145,13 +1167,13 @@
         <v>5000</v>
       </c>
       <c r="P15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2000</v>
       </c>
       <c r="S15" s="3">
         <v>2000</v>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5201000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4448000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3516000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4377000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5224000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5069000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5373000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5205000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5395000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5140000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5410000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5040000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4890000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4663000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4492000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4049000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3979000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E18" s="3">
         <v>670000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>336000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>634000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>354000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>699000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>848000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>799000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>731000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>803000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>722000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>530000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>586000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>622000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>586000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>540000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>524000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E20" s="3">
         <v>41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>49000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>44000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>82000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>52000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>78000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E21" s="3">
         <v>877000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>550000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>846000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>564000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>959000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1058000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1034000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>897000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>983000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>897000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>701000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>770000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>789000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>765000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>705000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>665000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E22" s="3">
         <v>25000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>23000</v>
       </c>
       <c r="F22" s="3">
         <v>23000</v>
       </c>
       <c r="G22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="H22" s="3">
         <v>22000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>32000</v>
       </c>
       <c r="K22" s="3">
         <v>32000</v>
       </c>
       <c r="L22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="M22" s="3">
         <v>30000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>24000</v>
       </c>
       <c r="O22" s="3">
         <v>24000</v>
       </c>
       <c r="P22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>18000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>18000</v>
       </c>
       <c r="S22" s="3">
         <v>18000</v>
       </c>
       <c r="T22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="U22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E23" s="3">
         <v>686000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>362000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>655000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>363000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>755000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>871000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>845000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>710000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>805000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>715000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>523000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>596000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>622000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>599000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>548000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>508000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E24" s="3">
         <v>182000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>93000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>127000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>139000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>186000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>176000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>171000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>141000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>155000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>124000</v>
       </c>
       <c r="O24" s="3">
         <v>124000</v>
       </c>
       <c r="P24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>165000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>158000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>143000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>112000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,64 +1696,70 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E26" s="3">
         <v>504000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>269000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>528000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>298000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>616000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>685000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>669000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>539000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>664000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>560000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>399000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>472000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>457000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>441000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>405000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>396000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1713,55 +1767,58 @@
         <v>501000</v>
       </c>
       <c r="E27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="F27" s="3">
         <v>276000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>511000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>622000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>675000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>663000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>508000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>658000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>551000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>399000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>507000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>453000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>424000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>396000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>378000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1830,11 +1890,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1842,23 +1902,23 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>71000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>34000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-74000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,64 +2050,70 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-49000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-44000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-82000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-52000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-78000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2049,55 +2121,58 @@
         <v>501000</v>
       </c>
       <c r="E33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="F33" s="3">
         <v>276000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>511000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>622000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>675000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>663000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>579000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>692000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>545000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>325000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-274000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>453000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>424000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>396000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>378000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,8 +2227,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2161,116 +2239,122 @@
         <v>501000</v>
       </c>
       <c r="E35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="F35" s="3">
         <v>276000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>511000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>622000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>675000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>663000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>579000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>692000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>545000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>325000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-274000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>453000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>424000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>396000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>378000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,512 +2398,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3401000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2967000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1751000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1691000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1129000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1560000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1397000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1328000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1303000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1222000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1318000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1207000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1369000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1290000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1293000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1322000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1120000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E42" s="3">
         <v>345000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>353000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>339000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>341000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>303000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>335000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>246000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>222000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>185000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>214000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>180000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>198000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>154000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>174000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>145000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>260000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3820000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3628000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3441000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3505000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3670000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3934000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4179000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4025000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3866000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3929000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4095000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3845000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3618000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3810000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3553000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3247000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3025000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3425000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3470000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3655000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3579000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3486000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3821000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3896000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3893000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3759000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3831000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3559000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3411000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3166000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3146000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2982000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2894000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2675000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E45" s="3">
         <v>652000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>634000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>676000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>761000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>610000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>643000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>599000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>668000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>696000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>649000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>558000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>577000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>656000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>551000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>627000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11897000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11062000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9834000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9790000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9387000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10228000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10450000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10091000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9818000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9863000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9835000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9201000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8928000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9056000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8602000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8159000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7707000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1418000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1362000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1304000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1237000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1250000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1274000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1303000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1222000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1255000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1303000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1288000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1156000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1213000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1162000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1059000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>946000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4693000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4087000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4067000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4128000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4741000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4502000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4511000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4482000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4096000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3870000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3824000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3892000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3927000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3816000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3787000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3802000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3800000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2256000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2278000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2301000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2248000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2289000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2310000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2026000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2020000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2035000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2060000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2019000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2045000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2055000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>827000</v>
       </c>
       <c r="R49" s="3">
         <v>827000</v>
       </c>
       <c r="S49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="T49" s="3">
         <v>812000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2723000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2750000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2606000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2083000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2056000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1993000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1950000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1891000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1944000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1934000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1966000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2009000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1907000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1882000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1787000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1746000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22624000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21568000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20314000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20076000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19737000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20346000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20254000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19846000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19062000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18992000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18915000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18392000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18075000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17992000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16260000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15634000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15011000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,344 +3270,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2820000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2597000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2281000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2648000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2534000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2830000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2991000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3018000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2822000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2980000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2981000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2854000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2579000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2486000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2168000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1854000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E58" s="3">
         <v>503000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2202000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1771000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>791000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1042000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>599000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>816000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>879000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>902000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>906000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>706000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>418000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>640000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>233000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>369000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>288000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2961000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2609000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2433000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2563000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2935000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2853000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2699000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2593000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2683000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2534000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2217000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2272000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2680000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2632000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2361000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2125000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2183000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6335000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5709000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6916000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6982000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6260000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6725000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6289000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6427000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6384000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6416000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6104000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5832000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5677000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5758000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4894000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4662000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4325000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3610000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3609000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1639000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1580000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1576000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1619000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1624000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1605000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1597000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1563000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1556000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1571000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1588000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1615000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1564000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1576000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1568000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3690000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3609000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3629000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3496000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3436000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3249000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3145000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3087000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2822000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2953000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3061000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2693000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2646000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2058000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1980000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1920000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1944000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14562000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13868000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13122000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13008000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12230000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12536000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11976000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12026000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11714000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11801000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11616000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10998000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10816000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10363000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8767000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8469000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8136000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15419000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15118000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14811000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14728000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14416000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14315000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13897000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13401000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12917000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12519000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12009000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11641000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11464000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11791000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11517000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11265000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11040000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8062000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7700000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7192000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7068000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7507000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7810000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8278000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7820000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7348000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7191000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7299000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7394000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7259000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7629000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7493000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7165000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6875000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,69 +4471,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4353,55 +4547,58 @@
         <v>501000</v>
       </c>
       <c r="E81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="F81" s="3">
         <v>276000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>511000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>622000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>675000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>663000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>579000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>692000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>545000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>325000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-274000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>453000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>424000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>396000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>378000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E83" s="3">
         <v>166000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>165000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>168000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>179000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>178000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>158000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>157000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>155000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>148000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>154000</v>
       </c>
       <c r="N83" s="3">
         <v>154000</v>
       </c>
       <c r="O83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="P83" s="3">
         <v>150000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>149000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>145000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>139000</v>
       </c>
       <c r="S83" s="3">
         <v>139000</v>
       </c>
       <c r="T83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="U83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1223000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>379000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>838000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1123000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>808000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>412000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>990000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>915000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>590000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-117000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>806000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>645000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>447000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>379000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>625000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-116000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-77000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-75000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-305000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-153000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-133000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-109000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-348000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-175000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-114000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-72000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-224000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-101000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-108000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-480000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-382000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-103000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-135000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-99000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-321000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-418000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-340000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-71000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-455000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-283000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-266000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-626000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-133000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-327000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,64 +5314,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-194000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-193000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-195000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-199000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-179000</v>
       </c>
       <c r="J96" s="3">
         <v>-179000</v>
       </c>
       <c r="K96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-181000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-182000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-177000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-179000</v>
       </c>
       <c r="P96" s="3">
         <v>-179000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-171000</v>
       </c>
       <c r="S96" s="3">
         <v>-171000</v>
       </c>
       <c r="T96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="E100" s="3">
         <v>104000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>226000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>234000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-897000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-487000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-364000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-347000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-440000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-707000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-201000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-474000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-380000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-164000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-368000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>48000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-51000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-55000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-35000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>31000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-78000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>43000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>34000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>37000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>14000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-61000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1216000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>562000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-431000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>163000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>69000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>81000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-96000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>111000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-162000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>79000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-29000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>202000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-131000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6092000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5830000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5118000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3852000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5011000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5578000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5768000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6221000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6004000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6126000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5943000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6132000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5570000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5476000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5285000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5078000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4589000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4503000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4606000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4469000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3769000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2962000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3717000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4265000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4274000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4580000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4472000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4580000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4392000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4692000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4370000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4100000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3944000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3827000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3457000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3383000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1486000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1361000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1349000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>890000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1294000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1313000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1494000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1641000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1532000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1546000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1551000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1440000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1200000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1376000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1341000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1251000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1132000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1120000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E12" s="3">
         <v>82000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>59000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>70000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>93000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>65000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>93000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>81000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>90000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>229000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>219000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>210000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>208000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>213000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>175000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>158000</v>
       </c>
       <c r="T12" s="3">
         <v>158000</v>
       </c>
       <c r="U12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="V12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,99 +1083,105 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>121000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>1000</v>
       </c>
       <c r="T14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U14" s="3">
         <v>-13000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E15" s="3">
         <v>179000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>170000</v>
       </c>
       <c r="F15" s="3">
         <v>170000</v>
       </c>
       <c r="G15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="H15" s="3">
         <v>173000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>183000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>182000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>163000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>161000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>159000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5000</v>
       </c>
       <c r="N15" s="3">
         <v>5000</v>
@@ -1170,13 +1193,13 @@
         <v>5000</v>
       </c>
       <c r="Q15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R15" s="3">
         <v>4000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>2000</v>
       </c>
       <c r="T15" s="3">
         <v>2000</v>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5282000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5201000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4448000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3516000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4377000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5224000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5069000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5373000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5205000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5395000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5140000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5410000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5040000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4890000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4663000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4492000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4049000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3979000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E18" s="3">
         <v>629000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>670000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>336000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>634000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>354000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>699000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>848000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>799000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>731000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>803000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>722000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>530000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>586000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>622000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>586000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>540000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>524000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,303 +1378,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>35000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>41000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>49000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>44000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>82000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>52000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>78000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>26000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E21" s="3">
         <v>838000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>877000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>550000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>846000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>564000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>959000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1058000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1034000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>897000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>983000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>897000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>701000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>770000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>789000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>765000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>705000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>665000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E22" s="3">
         <v>29000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>23000</v>
       </c>
       <c r="G22" s="3">
         <v>23000</v>
       </c>
       <c r="H22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I22" s="3">
         <v>22000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>32000</v>
       </c>
       <c r="L22" s="3">
         <v>32000</v>
       </c>
       <c r="M22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="N22" s="3">
         <v>30000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>24000</v>
       </c>
       <c r="P22" s="3">
         <v>24000</v>
       </c>
       <c r="Q22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="R22" s="3">
         <v>18000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>18000</v>
       </c>
       <c r="T22" s="3">
         <v>18000</v>
       </c>
       <c r="U22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="V22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>783000</v>
+      </c>
+      <c r="E23" s="3">
         <v>635000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>686000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>362000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>655000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>363000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>755000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>871000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>845000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>710000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>805000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>715000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>523000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>596000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>622000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>599000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>548000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>508000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E24" s="3">
         <v>125000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>182000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>93000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>127000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>139000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>186000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>176000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>171000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>141000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>155000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>124000</v>
       </c>
       <c r="P24" s="3">
         <v>124000</v>
       </c>
       <c r="Q24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="R24" s="3">
         <v>165000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>158000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>143000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>112000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E26" s="3">
         <v>510000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>504000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>269000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>528000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>298000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>616000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>685000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>669000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>539000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>664000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>560000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>399000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>472000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>457000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>441000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>405000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>396000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>501000</v>
+        <v>603000</v>
       </c>
       <c r="E27" s="3">
         <v>501000</v>
       </c>
       <c r="F27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="G27" s="3">
         <v>276000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>511000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>622000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>675000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>663000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>508000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>658000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>551000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>399000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>507000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>453000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>424000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>396000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>378000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1893,11 +1954,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1905,23 +1966,23 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>71000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>34000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-74000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-35000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-41000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-49000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-44000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-82000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-52000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-78000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-26000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>501000</v>
+        <v>603000</v>
       </c>
       <c r="E33" s="3">
         <v>501000</v>
       </c>
       <c r="F33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="G33" s="3">
         <v>276000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>511000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>622000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>675000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>663000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>579000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>692000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>545000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>325000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-274000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>453000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>424000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>396000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>378000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>501000</v>
+        <v>603000</v>
       </c>
       <c r="E35" s="3">
         <v>501000</v>
       </c>
       <c r="F35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="G35" s="3">
         <v>276000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>511000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>622000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>675000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>663000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>579000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>692000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>545000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>325000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-274000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>453000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>424000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>396000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>378000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,539 +2485,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2958000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3401000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2967000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1751000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1691000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1129000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1560000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1397000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1328000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1303000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1222000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1318000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1207000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1369000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1290000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1293000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1322000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1120000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E42" s="3">
         <v>461000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>345000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>353000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>339000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>341000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>303000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>335000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>246000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>222000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>185000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>214000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>180000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>198000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>154000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>174000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>145000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>260000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4209000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3820000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3628000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3441000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3505000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3670000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3934000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4179000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4025000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3866000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3929000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4095000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3845000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3618000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3810000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3553000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3247000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3025000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3753000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3425000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3470000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3655000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3579000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3486000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3821000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3896000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3893000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3759000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3831000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3559000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3411000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3166000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3146000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2982000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2894000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2675000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E45" s="3">
         <v>790000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>652000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>634000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>676000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>761000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>610000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>643000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>599000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>668000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>696000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>649000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>558000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>577000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>656000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>551000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>627000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12122000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11897000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11062000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9834000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9790000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9387000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10228000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10450000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10091000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9818000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9863000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9835000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9201000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8928000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9056000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8602000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8159000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7707000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1592000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1441000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1418000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1362000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1304000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1237000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1250000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1274000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1303000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1222000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1255000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1303000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1288000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1213000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1162000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1059000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>946000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4662000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4693000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4087000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4067000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4128000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4741000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4502000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4511000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4482000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4096000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3870000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3824000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3892000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3927000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3816000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3787000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3802000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3800000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2254000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2256000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2278000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2301000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2248000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2289000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2310000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2026000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2020000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2035000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2060000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2019000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2045000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2055000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>827000</v>
       </c>
       <c r="S49" s="3">
         <v>827000</v>
       </c>
       <c r="T49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="U49" s="3">
         <v>812000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2332000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2337000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2723000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2750000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2606000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2083000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2056000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1993000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1950000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1891000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1944000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1934000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1966000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2009000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1907000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1882000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1787000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1746000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22962000</v>
+      </c>
+      <c r="E54" s="3">
         <v>22624000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21568000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20314000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20076000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19737000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20346000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20254000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19846000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19062000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18992000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18915000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18392000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18075000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17992000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16260000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15634000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15011000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,362 +3401,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3279000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2820000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2597000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2281000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2648000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2534000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2830000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2991000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3018000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2822000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2980000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2981000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2854000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2579000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2486000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2168000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1854000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E58" s="3">
         <v>554000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>503000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2202000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1771000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>791000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1042000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>599000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>816000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>879000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>902000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>906000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>706000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>418000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>640000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>233000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>369000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>288000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2961000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2609000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2433000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2563000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2935000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2853000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2699000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2593000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2683000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2534000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2217000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2272000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2680000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2632000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2361000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2125000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2183000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6660000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6335000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5709000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6916000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6982000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6260000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6725000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6289000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6427000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6384000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6416000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6104000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5832000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5677000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5758000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4894000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4662000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4325000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3610000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3609000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1639000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1580000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1576000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1619000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1624000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1605000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1597000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1563000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1556000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1571000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1588000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1615000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1564000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1576000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1568000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3651000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3690000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3609000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3629000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3496000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3436000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3249000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3145000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3087000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2822000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2953000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3061000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2693000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2646000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2058000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1980000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1920000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1944000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14853000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14562000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13868000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13122000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13008000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12230000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12536000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11976000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12026000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11714000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11801000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11616000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10998000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10816000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10363000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8767000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8469000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8136000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15825000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15419000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15118000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14811000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14728000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14416000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14315000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13897000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13401000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12917000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12519000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12009000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11641000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11464000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11791000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11517000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11265000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11040000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8109000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8062000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7700000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7192000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7068000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7507000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7810000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8278000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7820000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7348000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7191000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7299000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7394000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7259000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7629000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7493000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7165000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6875000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>501000</v>
+        <v>603000</v>
       </c>
       <c r="E81" s="3">
         <v>501000</v>
       </c>
       <c r="F81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="G81" s="3">
         <v>276000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>511000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>622000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>675000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>663000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>579000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>692000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>545000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>325000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-274000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>453000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>424000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>396000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>378000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E83" s="3">
         <v>174000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>166000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>165000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>168000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>179000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>178000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>158000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>157000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>155000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>148000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>154000</v>
       </c>
       <c r="O83" s="3">
         <v>154000</v>
       </c>
       <c r="P83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>150000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>149000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>145000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>139000</v>
       </c>
       <c r="T83" s="3">
         <v>139000</v>
       </c>
       <c r="U83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="V83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1142000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1223000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>379000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>838000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1123000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>808000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>412000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>990000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>915000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>590000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-117000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>806000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>645000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>447000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>379000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>625000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-260000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-116000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-77000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-75000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-305000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-153000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-133000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-109000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-348000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-175000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-114000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-72000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-224000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-101000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-108000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-480000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-382000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-103000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-135000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-99000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-321000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-418000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-340000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-455000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-283000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-266000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-626000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-133000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-327000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,67 +5548,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-194000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-193000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-195000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-199000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-179000</v>
       </c>
       <c r="K96" s="3">
         <v>-179000</v>
       </c>
       <c r="L96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-181000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-182000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-177000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-179000</v>
       </c>
       <c r="Q96" s="3">
         <v>-179000</v>
       </c>
       <c r="R96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-171000</v>
       </c>
       <c r="T96" s="3">
         <v>-171000</v>
       </c>
       <c r="U96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-284000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>104000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>226000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>234000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-897000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-487000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-364000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-347000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-440000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-707000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-201000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-52000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-474000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-380000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-164000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-368000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-42000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>48000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-51000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-55000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-35000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-21000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-78000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>43000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>34000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>37000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>14000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-61000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-443000</v>
+      </c>
+      <c r="E102" s="3">
         <v>434000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1216000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>562000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-431000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>163000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>69000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>81000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-96000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>111000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-162000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>79000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-29000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>202000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-131000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E7" s="2">
         <v>44290</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6111000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6092000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5830000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5118000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3852000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5011000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5578000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5768000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6221000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6004000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6126000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5943000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6132000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5570000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5476000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5285000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5078000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4589000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4503000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4633000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4606000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4469000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3769000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2962000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3717000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4265000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4274000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4580000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4472000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4580000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4392000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4692000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4370000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4100000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3944000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3827000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3457000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3383000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1486000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1361000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1349000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>890000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1294000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1313000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1494000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1641000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1532000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1546000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1551000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1440000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1200000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1376000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1341000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1251000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1132000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1120000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,70 +974,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E12" s="3">
         <v>91000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>82000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>59000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>70000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>93000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>65000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>93000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>81000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>90000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>229000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>219000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>210000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>208000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>213000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>175000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>158000</v>
       </c>
       <c r="U12" s="3">
         <v>158000</v>
       </c>
       <c r="V12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="W12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,105 +1102,111 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>121000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>1000</v>
       </c>
       <c r="U14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V14" s="3">
         <v>-13000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E15" s="3">
         <v>175000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>179000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>170000</v>
       </c>
       <c r="G15" s="3">
         <v>170000</v>
       </c>
       <c r="H15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="I15" s="3">
         <v>173000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>183000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>182000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>163000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>161000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>159000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>5000</v>
       </c>
       <c r="O15" s="3">
         <v>5000</v>
@@ -1196,13 +1218,13 @@
         <v>5000</v>
       </c>
       <c r="R15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S15" s="3">
         <v>4000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2000</v>
       </c>
       <c r="U15" s="3">
         <v>2000</v>
@@ -1210,8 +1232,11 @@
       <c r="V15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1256,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5376000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5282000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5201000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4448000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3516000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4377000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5224000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5069000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5373000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5205000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5395000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5140000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5410000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5040000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4890000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4663000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4492000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4049000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3979000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E18" s="3">
         <v>810000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>629000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>670000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>336000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>634000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>354000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>699000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>848000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>799000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>731000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>803000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>722000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>530000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>586000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>622000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>586000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>540000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>524000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,318 +1411,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>41000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>49000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>44000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>82000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>78000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>26000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E21" s="3">
         <v>981000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>838000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>877000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>550000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>846000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>564000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>959000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1058000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1034000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>897000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>983000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>897000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>701000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>770000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>789000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>765000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>705000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>665000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E22" s="3">
         <v>28000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>23000</v>
       </c>
       <c r="H22" s="3">
         <v>23000</v>
       </c>
       <c r="I22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J22" s="3">
         <v>22000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>32000</v>
       </c>
       <c r="M22" s="3">
         <v>32000</v>
       </c>
       <c r="N22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="O22" s="3">
         <v>30000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>24000</v>
       </c>
       <c r="Q22" s="3">
         <v>24000</v>
       </c>
       <c r="R22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="S22" s="3">
         <v>18000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>18000</v>
       </c>
       <c r="U22" s="3">
         <v>18000</v>
       </c>
       <c r="V22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="W22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>779000</v>
+      </c>
+      <c r="E23" s="3">
         <v>783000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>635000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>686000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>362000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>655000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>363000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>755000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>871000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>845000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>710000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>805000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>715000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>523000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>596000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>622000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>599000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>548000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>508000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E24" s="3">
         <v>172000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>125000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>182000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>93000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>127000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>139000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>186000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>176000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>171000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>141000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>155000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>124000</v>
       </c>
       <c r="Q24" s="3">
         <v>124000</v>
       </c>
       <c r="R24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="S24" s="3">
         <v>165000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>158000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>143000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>112000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1799,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E26" s="3">
         <v>611000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>510000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>504000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>269000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>528000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>298000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>616000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>685000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>669000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>539000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>664000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>560000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>399000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>472000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>457000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>441000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>405000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>396000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E27" s="3">
         <v>603000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>501000</v>
       </c>
       <c r="F27" s="3">
         <v>501000</v>
       </c>
       <c r="G27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="H27" s="3">
         <v>276000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>511000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>622000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>675000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>663000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>508000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>658000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>551000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>399000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>507000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>453000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>424000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>396000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>378000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1957,11 +2017,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1969,23 +2029,23 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>71000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>34000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-6000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1999,8 +2059,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2189,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-41000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-49000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-44000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-82000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-78000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-26000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E33" s="3">
         <v>603000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>501000</v>
       </c>
       <c r="F33" s="3">
         <v>501000</v>
       </c>
       <c r="G33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="H33" s="3">
         <v>276000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>511000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>622000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>675000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>663000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>579000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>692000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>545000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>325000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-274000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>453000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>424000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>396000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>378000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2384,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E35" s="3">
         <v>603000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>501000</v>
       </c>
       <c r="F35" s="3">
         <v>501000</v>
       </c>
       <c r="G35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="H35" s="3">
         <v>276000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>511000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>622000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>675000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>663000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>579000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>692000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>545000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>325000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-274000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>453000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>424000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>396000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>378000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E38" s="2">
         <v>44290</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,566 +2571,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2958000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3401000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2967000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1751000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1691000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1129000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1560000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1397000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1328000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1303000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1222000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1318000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1207000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1369000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1290000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1293000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1322000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1120000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E42" s="3">
         <v>397000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>461000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>345000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>353000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>339000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>341000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>303000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>335000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>246000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>222000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>185000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>214000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>180000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>198000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>154000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>174000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>145000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>260000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4132000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4209000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3820000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3628000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3441000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3505000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3670000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3934000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4179000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4025000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3866000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3929000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4095000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3845000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3618000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3810000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3553000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3247000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3025000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4076000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3753000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3425000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3470000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3655000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3579000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3486000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3821000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3896000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3893000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3759000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3831000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3559000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3411000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3166000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3146000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2982000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2894000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2675000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E45" s="3">
         <v>805000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>790000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>652000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>634000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>676000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>761000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>610000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>643000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>599000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>668000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>696000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>649000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>558000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>577000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>656000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>551000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>627000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11931000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12122000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11897000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11062000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9834000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9790000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9387000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10228000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10450000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10091000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9818000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9863000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9835000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9201000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8928000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9056000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8602000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8159000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7707000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1592000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1441000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1418000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1362000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1304000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1237000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1250000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1274000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1303000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1222000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1255000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1303000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1288000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1156000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1213000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1162000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1059000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>946000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4632000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4662000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4693000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4087000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4067000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4128000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4741000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4502000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4511000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4482000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4096000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3870000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3824000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3892000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3927000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3816000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3787000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3802000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3800000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2254000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2256000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2278000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2301000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2248000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2289000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2310000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2026000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2020000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2035000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2060000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2019000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2045000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2055000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>827000</v>
       </c>
       <c r="T49" s="3">
         <v>827000</v>
       </c>
       <c r="U49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="V49" s="3">
         <v>812000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3284,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2318000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2332000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2337000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2723000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2750000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2606000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2083000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2056000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1993000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1950000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1891000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1944000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1934000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1966000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2009000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1907000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1882000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1787000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1746000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3414,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22608000</v>
+      </c>
+      <c r="E54" s="3">
         <v>22962000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22624000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21568000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20314000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20076000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19737000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20346000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20254000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19846000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19062000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18992000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18915000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18392000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18075000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17992000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16260000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15634000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15011000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,256 +3531,269 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3172000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3279000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2820000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2597000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2281000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2648000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2534000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2830000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2991000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3018000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2822000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2980000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2981000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2854000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2579000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2486000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2300000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2168000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1854000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E58" s="3">
         <v>471000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>554000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>503000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2202000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1771000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>791000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1042000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>599000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>816000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>879000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>902000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>906000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>706000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>418000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>640000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>233000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>369000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>288000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3121000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2910000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2961000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2609000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2433000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2563000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2935000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2853000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2699000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2593000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2683000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2534000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2217000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2272000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2680000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2632000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2361000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2125000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2183000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6604000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6660000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6335000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5709000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6916000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6982000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6260000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6725000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6289000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6427000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6384000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6416000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6104000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5832000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5677000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5758000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4894000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4662000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4325000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3659,123 +3801,129 @@
         <v>3620000</v>
       </c>
       <c r="E61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3610000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3609000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1639000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1580000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1576000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1619000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1624000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1605000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1597000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1563000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1556000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1571000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1588000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1615000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1564000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1576000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1568000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3591000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3651000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3690000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3609000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3629000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3496000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3436000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3249000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3145000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3087000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2822000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2953000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3061000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2693000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2646000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2058000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1980000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1920000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1944000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4114,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14742000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14853000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14562000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13868000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13122000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13008000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12230000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12536000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11976000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12026000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11714000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11801000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11616000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10998000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10816000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10363000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8767000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8469000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8136000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4464,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16228000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15825000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15419000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15118000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14811000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14728000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14416000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14315000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13897000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13401000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12917000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12519000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12009000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11641000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11464000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11791000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11517000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11265000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11040000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4724,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7866000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8109000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8062000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7700000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7192000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7068000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7507000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7810000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8278000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7820000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7348000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7191000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7299000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7394000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7259000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7629000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7493000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7165000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6875000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4854,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E80" s="2">
         <v>44290</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E81" s="3">
         <v>603000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>501000</v>
       </c>
       <c r="F81" s="3">
         <v>501000</v>
       </c>
       <c r="G81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="H81" s="3">
         <v>276000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>511000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>622000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>675000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>663000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>579000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>692000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>545000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>325000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-274000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>453000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>424000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>396000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>378000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5016,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E83" s="3">
         <v>170000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>174000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>166000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>165000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>168000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>179000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>178000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>158000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>157000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>155000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>148000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>154000</v>
       </c>
       <c r="P83" s="3">
         <v>154000</v>
       </c>
       <c r="Q83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="R83" s="3">
         <v>150000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>149000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>145000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>139000</v>
       </c>
       <c r="U83" s="3">
         <v>139000</v>
       </c>
       <c r="V83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="W83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5404,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>616000</v>
+      </c>
+      <c r="E89" s="3">
         <v>339000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1142000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1223000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>379000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>838000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1123000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>808000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>412000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>990000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>915000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>590000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>806000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>645000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>447000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>379000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>625000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5496,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-87000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-260000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-116000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-77000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-75000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-305000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-153000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-133000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-109000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-348000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-175000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-114000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-224000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-101000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-108000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-480000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5689,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-382000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-103000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-135000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-99000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-321000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-418000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-340000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-455000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-283000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-266000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-626000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-133000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-327000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5558,61 +5791,64 @@
         <v>-197000</v>
       </c>
       <c r="E96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-200000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-194000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-193000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-195000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-199000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-179000</v>
       </c>
       <c r="L96" s="3">
         <v>-179000</v>
       </c>
       <c r="M96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-181000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-182000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-177000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-179000</v>
       </c>
       <c r="R96" s="3">
         <v>-179000</v>
       </c>
       <c r="S96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-171000</v>
       </c>
       <c r="U96" s="3">
         <v>-171000</v>
       </c>
       <c r="V96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6039,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-977000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-745000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-284000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>104000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>226000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>234000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-897000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-487000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-364000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-347000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-440000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-707000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-201000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-474000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-56000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-380000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-164000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-368000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-42000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>48000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-51000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-55000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-35000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>31000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-21000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-78000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>43000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>34000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>37000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>14000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-61000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-477000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-443000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>434000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1216000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>562000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-431000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>163000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>81000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-96000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>111000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>79000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-29000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>202000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-131000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44381</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5968000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6111000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6092000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5830000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5118000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3852000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5011000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5578000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5768000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6221000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6004000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6126000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5943000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6132000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5570000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5476000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5285000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5078000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4589000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4503000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4554000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4633000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4606000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4469000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3769000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2962000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3717000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4265000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4274000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4580000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4472000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4580000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4392000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4692000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4370000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4100000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3944000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3827000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3457000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3383000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1414000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1478000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1486000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1361000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1349000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>890000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1294000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1313000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1494000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1641000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1532000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1546000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1551000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1440000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1376000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1341000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1251000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1132000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1120000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,73 +987,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E12" s="3">
         <v>110000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>91000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>82000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>59000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>70000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>93000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>65000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>93000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>81000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>90000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>229000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>219000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>210000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>208000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>213000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>175000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>158000</v>
       </c>
       <c r="V12" s="3">
         <v>158000</v>
       </c>
       <c r="W12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="X12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,111 +1121,117 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>121000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>1000</v>
       </c>
       <c r="V14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W14" s="3">
         <v>-13000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E15" s="3">
         <v>171000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>175000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>179000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>170000</v>
       </c>
       <c r="H15" s="3">
         <v>170000</v>
       </c>
       <c r="I15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="J15" s="3">
         <v>173000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>183000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>182000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>163000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>161000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>159000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>5000</v>
       </c>
       <c r="P15" s="3">
         <v>5000</v>
@@ -1221,13 +1243,13 @@
         <v>5000</v>
       </c>
       <c r="S15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T15" s="3">
         <v>4000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2000</v>
       </c>
       <c r="V15" s="3">
         <v>2000</v>
@@ -1235,8 +1257,11 @@
       <c r="W15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5302000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5376000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5282000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5201000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4448000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3516000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4377000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5224000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5069000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5373000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5205000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5395000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5140000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5410000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5040000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4890000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4663000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4492000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4049000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3979000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E18" s="3">
         <v>735000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>810000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>629000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>670000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>336000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>634000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>354000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>699000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>848000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>799000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>731000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>803000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>722000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>530000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>586000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>622000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>586000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>540000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>524000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,333 +1444,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E20" s="3">
         <v>73000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>35000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>41000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>49000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>44000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>82000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>52000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>78000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>26000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E21" s="3">
         <v>975000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>981000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>838000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>877000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>550000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>846000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>564000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>959000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1058000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1034000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>897000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>983000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>897000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>701000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>770000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>789000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>765000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>705000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>665000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E22" s="3">
         <v>29000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>29000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>23000</v>
       </c>
       <c r="I22" s="3">
         <v>23000</v>
       </c>
       <c r="J22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K22" s="3">
         <v>22000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>32000</v>
       </c>
       <c r="N22" s="3">
         <v>32000</v>
       </c>
       <c r="O22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="P22" s="3">
         <v>30000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>24000</v>
       </c>
       <c r="R22" s="3">
         <v>24000</v>
       </c>
       <c r="S22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="T22" s="3">
         <v>18000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>18000</v>
       </c>
       <c r="V22" s="3">
         <v>18000</v>
       </c>
       <c r="W22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="X22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>675000</v>
+      </c>
+      <c r="E23" s="3">
         <v>779000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>783000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>635000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>686000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>362000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>655000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>363000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>755000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>871000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>845000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>710000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>805000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>715000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>523000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>596000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>622000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>599000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>548000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>508000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E24" s="3">
         <v>167000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>172000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>125000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>182000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>93000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>127000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>65000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>139000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>186000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>176000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>171000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>141000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>155000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>124000</v>
       </c>
       <c r="R24" s="3">
         <v>124000</v>
       </c>
       <c r="S24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="T24" s="3">
         <v>165000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>158000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>143000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>112000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E26" s="3">
         <v>612000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>611000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>510000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>504000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>269000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>528000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>298000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>616000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>685000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>669000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>539000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>664000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>560000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>399000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>472000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>457000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>441000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>405000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>396000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E27" s="3">
         <v>600000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>603000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>501000</v>
       </c>
       <c r="G27" s="3">
         <v>501000</v>
       </c>
       <c r="H27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="I27" s="3">
         <v>276000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>511000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>622000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>675000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>663000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>508000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>658000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>551000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>399000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>507000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>453000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>424000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>396000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>378000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2020,11 +2080,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2032,23 +2092,23 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>71000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>34000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-74000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2062,8 +2122,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-73000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-35000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-41000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-49000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-44000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-82000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-52000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-78000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-26000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E33" s="3">
         <v>600000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>603000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>501000</v>
       </c>
       <c r="G33" s="3">
         <v>501000</v>
       </c>
       <c r="H33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="I33" s="3">
         <v>276000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>511000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>622000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>675000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>663000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>579000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>692000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>545000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>325000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-274000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>453000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>424000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>396000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>378000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E35" s="3">
         <v>600000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>603000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>501000</v>
       </c>
       <c r="G35" s="3">
         <v>501000</v>
       </c>
       <c r="H35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="I35" s="3">
         <v>276000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>511000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>622000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>675000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>663000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>579000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>692000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>545000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>325000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-274000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>453000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>424000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>396000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>378000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44381</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,593 +2657,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2588000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2481000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2958000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3401000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2967000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1751000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1691000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1129000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1560000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1397000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1328000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1303000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1222000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1318000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1207000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1369000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1290000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1293000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1322000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1120000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E42" s="3">
         <v>438000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>397000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>461000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>345000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>353000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>339000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>341000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>303000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>335000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>246000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>222000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>185000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>214000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>180000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>198000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>154000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>174000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>145000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>260000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4152000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4132000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4209000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3820000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3628000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3441000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3505000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3670000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3934000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4179000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4025000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3866000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3929000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4095000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3845000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3618000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3810000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3553000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3247000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3025000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4322000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4076000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3753000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3425000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3470000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3655000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3579000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3486000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3821000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3896000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3893000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3759000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3831000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3559000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3411000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3166000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3146000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2982000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2894000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2675000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>828000</v>
+      </c>
+      <c r="E45" s="3">
         <v>804000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>805000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>790000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>652000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>634000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>676000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>761000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>610000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>643000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>599000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>668000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>696000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>649000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>558000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>577000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>656000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>551000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>627000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12320000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11931000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12122000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11897000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11062000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9834000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9790000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9387000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10228000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10450000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10091000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9818000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9863000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9835000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9201000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8928000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9056000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8602000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8159000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7707000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1543000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1494000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1592000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1441000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1418000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1362000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1304000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1237000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1250000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1274000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1303000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1222000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1255000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1303000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1288000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1156000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1213000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1162000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1059000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>946000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4640000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4632000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4662000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4693000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4087000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4067000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4128000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4741000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4502000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4511000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4482000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4096000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3870000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3824000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3892000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3927000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3816000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3787000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3802000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3800000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2210000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2233000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2254000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2256000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2278000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2301000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2248000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2289000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2310000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2026000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2020000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2035000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2060000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2019000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2045000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2055000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>827000</v>
       </c>
       <c r="U49" s="3">
         <v>827000</v>
       </c>
       <c r="V49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="W49" s="3">
         <v>812000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2350000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2318000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2332000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2337000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2723000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2750000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2606000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2083000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2056000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1993000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1950000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1891000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1944000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1934000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1966000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2009000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1907000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1882000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1787000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1746000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23063000</v>
+      </c>
+      <c r="E54" s="3">
         <v>22608000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22962000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22624000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21568000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20314000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20076000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19737000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20346000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20254000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19846000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19062000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18992000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18915000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18392000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18075000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17992000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16260000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15634000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15011000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,398 +3661,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3210000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3172000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3279000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2820000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2597000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2281000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2648000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2534000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2830000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2991000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3018000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2822000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2980000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2981000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2854000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2579000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2486000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2300000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2168000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1854000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E58" s="3">
         <v>311000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>471000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>554000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>503000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2202000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1771000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>791000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1042000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>599000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>816000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>879000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>902000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>906000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>706000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>418000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>640000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>233000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>369000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>288000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3311000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3121000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2910000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2961000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2609000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2433000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2563000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2935000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2853000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2699000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2593000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2683000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2534000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2217000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2272000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2680000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2632000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2361000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2125000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2183000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6861000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6604000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6660000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6335000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5709000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6916000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6982000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6260000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6725000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6289000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6427000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6384000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6416000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6104000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5832000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5677000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5758000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4894000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4662000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4325000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3620000</v>
+        <v>3602000</v>
       </c>
       <c r="E61" s="3">
         <v>3620000</v>
       </c>
       <c r="F61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="G61" s="3">
         <v>3610000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3609000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1639000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1580000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1576000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1619000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1624000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1605000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1597000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1563000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1556000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1571000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1588000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1615000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1564000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1576000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1568000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3597000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3591000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3651000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3690000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3609000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3629000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3496000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3436000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3249000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3145000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3087000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2822000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2953000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3061000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2693000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2646000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2058000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1980000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1920000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1944000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14981000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14742000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14853000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14562000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13868000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13122000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13008000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12230000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12536000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11976000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12026000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11714000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11801000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11616000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10998000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10816000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10363000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8767000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8469000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8136000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16555000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16228000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15825000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15419000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15118000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14811000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14728000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14416000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14315000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13897000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13401000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12917000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12519000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12009000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11641000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11464000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11791000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11517000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11265000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11040000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8082000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7866000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8109000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8062000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7700000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7192000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7068000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7507000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7810000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8278000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7820000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7348000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7191000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7299000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7394000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7259000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7629000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7493000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7165000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6875000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44381</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E81" s="3">
         <v>600000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>603000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>501000</v>
       </c>
       <c r="G81" s="3">
         <v>501000</v>
       </c>
       <c r="H81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="I81" s="3">
         <v>276000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>511000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>622000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>675000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>663000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>579000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>692000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>545000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>325000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-274000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>453000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>424000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>396000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>378000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E83" s="3">
         <v>167000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>170000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>174000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>166000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>165000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>168000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>179000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>178000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>158000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>157000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>155000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>148000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>154000</v>
       </c>
       <c r="Q83" s="3">
         <v>154000</v>
       </c>
       <c r="R83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="S83" s="3">
         <v>150000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>149000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>145000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>139000</v>
       </c>
       <c r="V83" s="3">
         <v>139000</v>
       </c>
       <c r="W83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="X83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E89" s="3">
         <v>616000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>339000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1142000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1223000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>379000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>838000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1123000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>808000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>412000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>990000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>915000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>590000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-117000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>806000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>645000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>447000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>379000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>625000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-125000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-87000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-260000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-116000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-77000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-305000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-153000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-133000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-109000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-348000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-175000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-114000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-72000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-224000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-101000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-108000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-480000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-121000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-382000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-135000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-99000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-321000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-418000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-340000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-455000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-283000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-266000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-626000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-133000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-327000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,73 +6014,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-197000</v>
+        <v>-207000</v>
       </c>
       <c r="E96" s="3">
         <v>-197000</v>
       </c>
       <c r="F96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-200000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-194000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-193000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-195000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-199000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-179000</v>
       </c>
       <c r="M96" s="3">
         <v>-179000</v>
       </c>
       <c r="N96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-181000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-182000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-177000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-179000</v>
       </c>
       <c r="S96" s="3">
         <v>-179000</v>
       </c>
       <c r="T96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-171000</v>
       </c>
       <c r="V96" s="3">
         <v>-171000</v>
       </c>
       <c r="W96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-357000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-977000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-745000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-284000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>104000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>226000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>234000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-897000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-487000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-364000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-347000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-440000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-707000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-52000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-474000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-380000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-164000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-368000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-42000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>48000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-51000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-55000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-35000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>31000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>43000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>34000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>37000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>14000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-61000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-477000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-443000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>434000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1216000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>60000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>562000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-431000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>163000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>69000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>81000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-96000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>111000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-162000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>79000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-29000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>202000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-131000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,318 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5850000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5968000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6111000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6092000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5830000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5118000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3852000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5011000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5578000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5768000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6221000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6004000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6126000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5943000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6132000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5570000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5476000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5285000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5078000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4589000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4503000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4533000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4554000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4633000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4606000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4469000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3769000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2962000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3717000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4265000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4274000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4580000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4472000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4580000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4392000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4692000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4370000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4100000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3944000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3827000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3457000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3383000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1414000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1478000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1486000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1361000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1349000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>890000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1294000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1313000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1494000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1641000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1532000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1546000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1440000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1200000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1376000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1341000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1251000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1132000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1120000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,76 +1001,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E12" s="3">
         <v>107000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>110000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>91000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>82000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>59000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>70000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>93000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>93000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>81000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>90000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>229000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>219000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>210000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>208000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>213000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>175000</v>
-      </c>
-      <c r="V12" s="3">
-        <v>158000</v>
       </c>
       <c r="W12" s="3">
         <v>158000</v>
       </c>
       <c r="X12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,117 +1141,123 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>121000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>1000</v>
       </c>
       <c r="W14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X14" s="3">
         <v>-13000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E15" s="3">
         <v>165000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>171000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>175000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>179000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>170000</v>
       </c>
       <c r="I15" s="3">
         <v>170000</v>
       </c>
       <c r="J15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="K15" s="3">
         <v>173000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>183000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>182000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>163000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>161000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>159000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>5000</v>
       </c>
       <c r="Q15" s="3">
         <v>5000</v>
@@ -1246,13 +1269,13 @@
         <v>5000</v>
       </c>
       <c r="T15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U15" s="3">
         <v>4000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2000</v>
       </c>
       <c r="W15" s="3">
         <v>2000</v>
@@ -1260,8 +1283,11 @@
       <c r="X15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5355000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5302000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5376000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5282000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5201000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4448000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3516000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4377000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5224000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5069000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5373000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5205000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5395000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5140000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5410000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5040000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4890000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4663000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4492000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4049000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3979000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E18" s="3">
         <v>666000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>735000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>810000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>629000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>670000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>336000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>634000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>354000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>699000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>848000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>799000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>731000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>803000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>722000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>530000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>586000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>622000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>586000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>540000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>524000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,348 +1478,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E20" s="3">
         <v>37000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>73000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>35000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>41000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>49000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>44000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>82000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>52000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>78000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>17000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>18000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>26000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E21" s="3">
         <v>863000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>975000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>981000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>838000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>877000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>550000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>846000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>564000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>959000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1058000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1034000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>897000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>983000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>897000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>701000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>770000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>789000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>765000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>705000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>665000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E22" s="3">
         <v>28000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>23000</v>
       </c>
       <c r="J22" s="3">
         <v>23000</v>
       </c>
       <c r="K22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L22" s="3">
         <v>22000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>32000</v>
       </c>
       <c r="O22" s="3">
         <v>32000</v>
       </c>
       <c r="P22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>30000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>24000</v>
       </c>
       <c r="S22" s="3">
         <v>24000</v>
       </c>
       <c r="T22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="U22" s="3">
         <v>18000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>18000</v>
       </c>
       <c r="W22" s="3">
         <v>18000</v>
       </c>
       <c r="X22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E23" s="3">
         <v>675000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>779000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>783000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>635000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>686000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>362000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>655000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>363000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>755000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>871000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>845000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>710000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>805000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>715000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>523000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>596000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>622000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>599000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>548000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>508000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E24" s="3">
         <v>134000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>167000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>172000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>125000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>182000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>93000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>127000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>139000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>186000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>176000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>171000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>141000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>155000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>124000</v>
       </c>
       <c r="S24" s="3">
         <v>124000</v>
       </c>
       <c r="T24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="U24" s="3">
         <v>165000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>158000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>143000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>112000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E26" s="3">
         <v>541000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>612000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>611000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>510000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>504000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>269000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>528000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>298000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>616000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>685000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>669000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>539000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>664000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>560000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>399000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>472000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>457000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>441000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>405000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>396000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E27" s="3">
         <v>534000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>603000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>501000</v>
       </c>
       <c r="H27" s="3">
         <v>501000</v>
       </c>
       <c r="I27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="J27" s="3">
         <v>276000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>511000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>622000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>675000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>663000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>508000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>658000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>551000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>399000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>507000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>453000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>424000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>396000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>378000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2057,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2083,11 +2144,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2095,23 +2156,23 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>71000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>34000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-6000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-74000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2125,8 +2186,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,144 +2328,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-37000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-73000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-35000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-41000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-49000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-44000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-82000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-52000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-78000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-17000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-18000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-26000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E33" s="3">
         <v>534000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>603000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>501000</v>
       </c>
       <c r="H33" s="3">
         <v>501000</v>
       </c>
       <c r="I33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="J33" s="3">
         <v>276000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>511000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>622000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>675000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>663000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>579000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>692000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>545000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>325000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-274000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>453000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>424000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>396000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>378000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E35" s="3">
         <v>534000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>603000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>501000</v>
       </c>
       <c r="H35" s="3">
         <v>501000</v>
       </c>
       <c r="I35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="J35" s="3">
         <v>276000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>511000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>622000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>675000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>663000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>579000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>692000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>545000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>325000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-274000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>453000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>424000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>396000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>378000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,620 +2744,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2588000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2481000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2958000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3401000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2967000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1751000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1691000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1129000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1560000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1397000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1328000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1303000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1222000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1318000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1207000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1369000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1290000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1293000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1322000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1120000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E42" s="3">
         <v>430000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>438000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>397000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>461000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>345000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>353000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>339000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>341000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>303000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>335000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>246000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>222000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>185000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>214000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>180000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>198000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>154000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>174000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>145000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>260000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3990000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4152000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4132000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4209000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3820000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3628000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3441000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3505000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3670000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3934000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4179000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4025000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3866000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3929000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4095000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3845000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3618000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3810000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3553000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3247000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3025000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4355000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4322000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4076000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3753000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3425000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3470000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3655000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3579000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3486000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3821000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3896000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3893000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3759000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3831000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3559000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3411000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3166000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3146000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2982000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2894000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2675000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>777000</v>
+      </c>
+      <c r="E45" s="3">
         <v>828000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>804000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>805000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>790000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>652000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>634000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>676000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>761000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>610000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>643000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>599000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>668000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>696000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>649000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>558000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>577000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>656000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>551000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>627000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12309000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12320000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11931000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12122000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11897000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11062000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9834000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9790000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9387000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10228000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10450000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10091000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9818000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9863000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9835000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9201000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8928000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9056000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8602000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8159000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7707000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1543000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1494000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1592000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1441000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1418000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1362000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1304000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1237000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1250000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1274000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1303000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1222000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1255000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1303000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1288000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1156000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1213000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1162000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1059000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>946000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4866000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4640000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4632000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4662000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4693000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4087000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4067000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4128000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4741000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4502000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4511000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4482000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4096000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3870000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3824000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3892000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3927000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3816000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3787000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3802000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3800000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2187000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2210000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2233000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2254000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2256000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2278000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2301000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2248000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2289000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2310000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2026000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2020000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2035000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2019000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2045000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2055000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>827000</v>
       </c>
       <c r="V49" s="3">
         <v>827000</v>
       </c>
       <c r="W49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="X49" s="3">
         <v>812000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2810000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2350000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2318000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2332000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2337000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2723000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2750000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2606000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2083000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2056000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1993000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1950000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1891000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1944000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1934000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1966000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2009000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1907000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1882000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1787000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1746000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23710000</v>
+      </c>
+      <c r="E54" s="3">
         <v>23063000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22608000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22962000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22624000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21568000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20314000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20076000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19737000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20346000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20254000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19846000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19062000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18992000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18915000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18392000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18075000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17992000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16260000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15634000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15011000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,416 +3792,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3021000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3210000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3172000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3279000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2820000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2597000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2281000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2648000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2534000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2830000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2991000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3018000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2822000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2980000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2981000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2854000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2579000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2486000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2300000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2168000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1854000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E58" s="3">
         <v>340000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>311000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>471000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>554000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>503000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2202000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1771000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>791000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1042000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>599000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>816000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>879000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>902000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>906000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>706000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>418000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>640000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>233000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>369000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>288000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3483000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3311000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3121000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2910000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2961000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2609000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2433000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2563000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2935000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2853000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2699000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2593000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2683000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2534000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2217000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2272000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2680000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2632000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2361000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2125000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2183000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7084000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6861000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6604000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6660000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6335000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5709000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6916000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6982000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6260000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6725000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6289000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6427000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6384000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6416000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6104000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5832000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5677000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5758000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4894000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4662000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4325000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3579000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3602000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3620000</v>
       </c>
       <c r="F61" s="3">
         <v>3620000</v>
       </c>
       <c r="G61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="H61" s="3">
         <v>3610000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3609000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1639000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1580000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1576000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1619000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1624000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1605000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1597000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1563000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1556000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1571000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1588000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1615000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1564000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1576000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1568000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3646000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3597000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3591000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3651000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3690000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3609000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3629000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3496000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3436000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3249000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3145000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3087000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2822000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2953000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3061000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2693000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2646000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2058000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1980000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1920000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1944000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4206,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15236000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14981000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14742000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14853000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14562000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13868000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13122000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13008000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12230000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12536000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11976000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12026000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11714000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11801000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11616000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10998000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10816000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10363000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8767000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8469000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8136000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4572,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16741000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16555000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16228000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15825000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15419000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15118000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14811000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14728000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14416000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14315000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13897000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13401000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12917000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12519000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12009000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11641000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11464000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11791000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11517000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11265000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11040000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8474000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8082000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7866000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8109000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8062000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7700000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7192000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7068000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7507000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7810000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8278000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7820000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7348000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7191000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7299000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7394000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7259000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7629000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7493000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7165000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6875000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E81" s="3">
         <v>534000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>603000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>501000</v>
       </c>
       <c r="H81" s="3">
         <v>501000</v>
       </c>
       <c r="I81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="J81" s="3">
         <v>276000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>511000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>622000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>675000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>663000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>579000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>692000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>545000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>325000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-274000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>453000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>424000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>396000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>378000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E83" s="3">
         <v>160000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>167000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>170000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>174000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>166000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>165000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>168000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>179000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>178000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>158000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>157000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>155000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>148000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>154000</v>
       </c>
       <c r="R83" s="3">
         <v>154000</v>
       </c>
       <c r="S83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="T83" s="3">
         <v>150000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>149000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>145000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>139000</v>
       </c>
       <c r="W83" s="3">
         <v>139000</v>
       </c>
       <c r="X83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E89" s="3">
         <v>569000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>616000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>339000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1142000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1223000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>379000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>838000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1123000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>808000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>412000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>990000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>915000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>590000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-117000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>806000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>645000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>447000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>379000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>625000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-372000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-150000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-125000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-87000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-260000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-116000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-77000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-75000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-305000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-153000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-133000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-109000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-348000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-175000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-114000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-72000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-224000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-101000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-108000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-480000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-595000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-132000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-121000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-382000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-103000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-135000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-99000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-321000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-418000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-340000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-71000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-455000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-283000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-266000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-626000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-133000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-327000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,76 +6248,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-207000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-197000</v>
       </c>
       <c r="F96" s="3">
         <v>-197000</v>
       </c>
       <c r="G96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-194000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-193000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-195000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-199000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-179000</v>
       </c>
       <c r="N96" s="3">
         <v>-179000</v>
       </c>
       <c r="O96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-181000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-182000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-177000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-179000</v>
       </c>
       <c r="T96" s="3">
         <v>-179000</v>
       </c>
       <c r="U96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-171000</v>
       </c>
       <c r="W96" s="3">
         <v>-171000</v>
       </c>
       <c r="X96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,208 +6530,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-357000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-977000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-745000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-284000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>104000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>226000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>234000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-897000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-487000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-364000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-347000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-440000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-707000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-201000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-52000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-474000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-56000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-380000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-164000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-368000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>27000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-42000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>48000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-51000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-55000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-35000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>31000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-78000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>43000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>34000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>37000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>14000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-61000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>107000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-477000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-443000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>434000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1216000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>60000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>562000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-431000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>163000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>69000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>81000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>111000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-162000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>79000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-29000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>202000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-131000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,331 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44381</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44290</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6385000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5850000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5968000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6111000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6092000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5830000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5118000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3852000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5011000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5578000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5768000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6221000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6004000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6126000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5943000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6132000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5570000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5476000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5285000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5078000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4589000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4503000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4853000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4533000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4554000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4633000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4606000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4469000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3769000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2962000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3717000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4265000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4274000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4580000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4472000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4580000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4392000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4692000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4370000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4100000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3944000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3827000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3457000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3383000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1317000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1414000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1478000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1486000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1361000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1349000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>890000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1294000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1313000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1494000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1641000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1532000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1551000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1440000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1376000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1341000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1251000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1132000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1120000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,79 +1015,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E12" s="3">
         <v>123000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>107000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>110000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>91000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>82000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>59000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>70000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>93000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>65000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>93000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>81000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>90000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>229000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>219000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>210000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>208000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>213000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>175000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>158000</v>
       </c>
       <c r="X12" s="3">
         <v>158000</v>
       </c>
       <c r="Y12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="Z12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,123 +1161,129 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>121000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>1000</v>
       </c>
       <c r="X14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E15" s="3">
         <v>170000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>165000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>171000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>175000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>179000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>170000</v>
       </c>
       <c r="J15" s="3">
         <v>170000</v>
       </c>
       <c r="K15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="L15" s="3">
         <v>173000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>183000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>182000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>163000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>161000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>159000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>5000</v>
       </c>
       <c r="R15" s="3">
         <v>5000</v>
@@ -1272,13 +1295,13 @@
         <v>5000</v>
       </c>
       <c r="U15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V15" s="3">
         <v>4000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>2000</v>
       </c>
       <c r="X15" s="3">
         <v>2000</v>
@@ -1286,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5781000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5355000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5302000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5376000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5282000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5201000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4448000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3516000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4377000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5224000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5069000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5373000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5205000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5395000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5140000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5410000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5040000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4890000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4663000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4492000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4049000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3979000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E18" s="3">
         <v>495000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>666000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>735000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>810000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>629000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>670000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>336000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>634000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>354000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>699000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>848000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>799000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>731000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>803000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>722000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>530000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>586000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>622000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>586000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>540000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>524000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,363 +1512,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>45000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>37000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>73000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>35000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>49000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>44000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>31000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>82000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>52000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>78000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>17000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>18000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>26000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E21" s="3">
         <v>705000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>863000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>975000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>981000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>838000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>877000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>550000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>846000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>564000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>959000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1058000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1034000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>897000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>983000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>897000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>701000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>770000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>789000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>765000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>705000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>665000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="3">
         <v>26000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>29000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>23000</v>
       </c>
       <c r="K22" s="3">
         <v>23000</v>
       </c>
       <c r="L22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M22" s="3">
         <v>22000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>32000</v>
       </c>
       <c r="P22" s="3">
         <v>32000</v>
       </c>
       <c r="Q22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="R22" s="3">
         <v>30000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>28000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>24000</v>
       </c>
       <c r="T22" s="3">
         <v>24000</v>
       </c>
       <c r="U22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="V22" s="3">
         <v>18000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>21000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>18000</v>
       </c>
       <c r="X22" s="3">
         <v>18000</v>
       </c>
       <c r="Y22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E23" s="3">
         <v>514000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>675000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>779000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>783000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>635000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>686000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>362000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>655000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>363000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>755000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>871000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>845000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>710000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>805000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>715000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>523000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>596000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>622000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>599000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>548000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>508000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E24" s="3">
         <v>114000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>134000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>167000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>172000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>125000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>182000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>93000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>139000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>186000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>176000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>171000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>141000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>155000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>124000</v>
       </c>
       <c r="T24" s="3">
         <v>124000</v>
       </c>
       <c r="U24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="V24" s="3">
         <v>165000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>158000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>143000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>112000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>423000</v>
+      </c>
+      <c r="E26" s="3">
         <v>400000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>541000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>612000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>611000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>510000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>504000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>269000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>528000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>298000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>616000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>685000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>669000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>539000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>664000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>560000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>399000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>472000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>457000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>441000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>405000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>396000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E27" s="3">
         <v>394000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>534000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>603000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>501000</v>
       </c>
       <c r="I27" s="3">
         <v>501000</v>
       </c>
       <c r="J27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="K27" s="3">
         <v>276000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>511000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>622000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>675000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>663000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>508000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>658000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>551000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>399000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>507000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>453000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>424000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>396000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>378000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,40 +2176,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -2159,23 +2220,23 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>71000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>34000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-6000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-74000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2189,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-45000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-37000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-73000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-35000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-49000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-44000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-31000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-82000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-52000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-78000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-17000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-18000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-26000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E33" s="3">
         <v>394000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>534000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>603000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>501000</v>
       </c>
       <c r="I33" s="3">
         <v>501000</v>
       </c>
       <c r="J33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="K33" s="3">
         <v>276000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>511000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>622000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>675000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>663000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>579000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>692000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>545000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>325000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-274000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>453000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>424000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>396000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>378000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E35" s="3">
         <v>394000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>534000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>603000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>501000</v>
       </c>
       <c r="I35" s="3">
         <v>501000</v>
       </c>
       <c r="J35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="K35" s="3">
         <v>276000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>511000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>622000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>675000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>663000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>579000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>692000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>545000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>325000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-274000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>453000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>424000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>396000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>378000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44381</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44290</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,647 +2831,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2276000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2592000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2588000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2481000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2958000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3401000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2967000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1751000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1691000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1129000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1560000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1397000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1328000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1303000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1222000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1318000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1207000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1369000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1290000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1293000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1322000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1120000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E42" s="3">
         <v>595000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>430000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>438000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>397000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>461000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>345000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>353000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>339000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>341000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>303000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>335000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>246000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>222000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>185000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>214000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>180000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>198000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>154000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>174000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>145000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>260000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4368000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3990000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4152000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4132000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4209000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3820000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3628000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3441000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3505000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3670000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3934000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4179000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4025000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3866000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3929000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4095000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3845000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3618000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3810000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3553000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3247000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3025000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4586000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4355000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4322000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4076000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3753000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3425000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3470000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3655000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3579000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3486000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3821000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3896000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3893000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3759000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3831000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3559000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3411000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3166000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3146000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2982000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2894000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2675000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E45" s="3">
         <v>777000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>828000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>804000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>805000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>790000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>652000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>634000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>676000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>761000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>610000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>643000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>599000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>668000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>696000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>649000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>558000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>577000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>656000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>551000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>627000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12596000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12309000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12320000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11931000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12122000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11897000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11062000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9834000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9790000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9387000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10228000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10450000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10091000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9818000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9863000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9835000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9201000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8928000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9056000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8602000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8159000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7707000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1592000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1538000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1543000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1494000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1592000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1441000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1418000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1362000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1304000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1237000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1250000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1274000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1303000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1222000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1255000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1303000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1288000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1156000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1213000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1162000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1059000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>946000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4821000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4866000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4640000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4632000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4662000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4693000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4087000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4067000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4128000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4741000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4502000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4511000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4482000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4096000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3870000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3824000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3892000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3927000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3816000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3787000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3802000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3800000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2203000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2187000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2210000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2233000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2254000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2256000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2278000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2301000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2248000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2289000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2310000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2026000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2020000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2035000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2060000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2019000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2045000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2055000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>827000</v>
       </c>
       <c r="W49" s="3">
         <v>827000</v>
       </c>
       <c r="X49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>812000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2810000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2350000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2318000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2332000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2337000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2723000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2750000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2606000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2083000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2056000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1993000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1950000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1891000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1944000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1934000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1966000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2009000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1907000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1882000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1787000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1746000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24122000</v>
+      </c>
+      <c r="E54" s="3">
         <v>23710000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23063000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22608000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22962000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22624000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21568000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20314000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20076000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19737000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20346000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20254000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19846000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19062000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18992000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18915000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18392000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18075000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17992000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16260000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15634000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15011000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,434 +3923,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3497000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3021000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3210000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3172000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3279000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2820000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2597000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2281000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2648000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2534000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2830000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2991000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3018000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2822000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2980000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2981000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2854000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2579000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2486000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2300000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2168000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1854000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E58" s="3">
         <v>580000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>340000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>311000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>471000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>554000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>503000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2202000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1771000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>791000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1042000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>599000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>816000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>879000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>902000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>906000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>706000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>418000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>640000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>233000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>369000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>288000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3392000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3483000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3311000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3121000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2910000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2961000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2609000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2433000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2563000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2935000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2853000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2699000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2593000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2683000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2534000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2217000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2272000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2680000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2632000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2361000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2125000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2183000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7512000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7084000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6861000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6604000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6660000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6335000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5709000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6916000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6982000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6260000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6725000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6289000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6427000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6384000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6416000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6104000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5832000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5677000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5758000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4894000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4662000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4325000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3579000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3602000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3620000</v>
       </c>
       <c r="G61" s="3">
         <v>3620000</v>
       </c>
       <c r="H61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="I61" s="3">
         <v>3610000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3609000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1639000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1580000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1576000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1619000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1624000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1605000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1597000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1563000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1556000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1571000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1588000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1615000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1564000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1576000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1568000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3745000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3646000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3597000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3591000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3651000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3690000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3609000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3629000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3496000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3436000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3249000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3145000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3087000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2822000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2953000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3061000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2693000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2646000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2058000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1980000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1920000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1944000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15686000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15236000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14981000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14742000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14853000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14562000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13868000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13122000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13008000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12230000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12536000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11976000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12026000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11714000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11801000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11616000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10998000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10816000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10363000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8767000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8469000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8136000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16952000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16741000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16555000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16228000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15825000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15419000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15118000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14811000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14728000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14416000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14315000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13897000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13401000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12917000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12519000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12009000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11641000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11464000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11791000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11517000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11265000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11040000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8436000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8474000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8082000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7866000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8109000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8062000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7700000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7192000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7068000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7507000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7810000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8278000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7820000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7348000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7191000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7299000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7394000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7259000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7629000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7493000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7165000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6875000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44381</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44290</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E81" s="3">
         <v>394000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>534000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>603000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>501000</v>
       </c>
       <c r="I81" s="3">
         <v>501000</v>
       </c>
       <c r="J81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="K81" s="3">
         <v>276000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>511000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>622000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>675000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>663000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>579000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>692000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>545000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>325000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-274000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>453000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>424000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>396000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>378000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E83" s="3">
         <v>165000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>160000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>167000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>170000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>174000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>166000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>165000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>168000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>179000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>178000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>158000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>157000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>155000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>148000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>154000</v>
       </c>
       <c r="S83" s="3">
         <v>154000</v>
       </c>
       <c r="T83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="U83" s="3">
         <v>150000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>149000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>145000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>139000</v>
       </c>
       <c r="X83" s="3">
         <v>139000</v>
       </c>
       <c r="Y83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E89" s="3">
         <v>732000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>569000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>616000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>339000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1142000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1223000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>379000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>838000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1123000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>808000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>412000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>990000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>915000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>590000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-117000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>806000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>645000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>447000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>379000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>625000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-372000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-150000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-125000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-87000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-260000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-116000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-75000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-305000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-153000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-133000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-109000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-348000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-175000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-114000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-72000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-224000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-101000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-108000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-480000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-595000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-132000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-121000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-382000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-103000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-135000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-321000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-418000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-340000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-71000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-455000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-283000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-36000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-266000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-626000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-133000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-27000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-327000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,79 +6482,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-208000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-207000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-197000</v>
       </c>
       <c r="G96" s="3">
         <v>-197000</v>
       </c>
       <c r="H96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-200000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-194000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-193000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-195000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-199000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-179000</v>
       </c>
       <c r="O96" s="3">
         <v>-179000</v>
       </c>
       <c r="P96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-182000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-177000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-179000</v>
       </c>
       <c r="U96" s="3">
         <v>-179000</v>
       </c>
       <c r="V96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-171000</v>
       </c>
       <c r="X96" s="3">
         <v>-171000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-497000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-148000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-357000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-977000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-745000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-284000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>104000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>226000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>234000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-897000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-487000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-364000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-347000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-440000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-707000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-201000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-52000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-474000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-56000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-380000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-164000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-368000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3">
         <v>15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>27000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-42000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>48000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-51000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-55000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-35000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>31000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-21000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-78000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>43000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>34000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>37000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>14000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-61000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>107000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-477000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-443000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>434000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1216000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>60000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>562000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-431000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>163000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>69000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-96000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>111000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-162000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>79000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-29000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>202000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-131000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,344 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6586000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6385000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5850000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5968000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6111000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6092000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5830000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5118000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3852000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5011000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5578000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5768000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6221000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6004000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6126000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5943000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6132000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5570000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5476000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5285000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5078000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4589000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4503000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4853000</v>
+        <v>4900000</v>
       </c>
       <c r="E9" s="3">
+        <v>4794000</v>
+      </c>
+      <c r="F9" s="3">
         <v>4533000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4554000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4633000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4606000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4469000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3769000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2962000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3717000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4265000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4274000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4580000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4472000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4580000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4392000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4692000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4370000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4100000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3944000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3827000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3457000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3383000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1686000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1591000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1414000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1486000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>890000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1641000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1532000</v>
       </c>
-      <c r="E10" s="3">
-        <v>1317000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1414000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1478000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1486000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1361000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1349000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>890000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1294000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1313000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1494000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1641000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1532000</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1546000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1551000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1440000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1376000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1341000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1251000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1132000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1120000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,82 +1029,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>138000</v>
+        <v>299000</v>
       </c>
       <c r="E12" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F12" s="3">
         <v>123000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>107000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>110000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>91000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>82000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>59000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>70000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>93000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>65000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>93000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>81000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>90000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>229000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>219000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>210000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>208000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>213000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>175000</v>
-      </c>
-      <c r="X12" s="3">
-        <v>158000</v>
       </c>
       <c r="Y12" s="3">
         <v>158000</v>
       </c>
       <c r="Z12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1164,129 +1181,135 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>36000</v>
+        <v>-44000</v>
       </c>
       <c r="E14" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>121000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>1000</v>
       </c>
       <c r="Y14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="G15" s="3">
         <v>165000</v>
       </c>
-      <c r="E15" s="3">
-        <v>170000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>165000</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>171000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>175000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>179000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>170000</v>
       </c>
       <c r="K15" s="3">
         <v>170000</v>
       </c>
       <c r="L15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="M15" s="3">
         <v>173000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>183000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>182000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>163000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>161000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>159000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>5000</v>
       </c>
       <c r="S15" s="3">
         <v>5000</v>
@@ -1298,13 +1321,13 @@
         <v>5000</v>
       </c>
       <c r="V15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W15" s="3">
         <v>4000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>2000</v>
       </c>
       <c r="Y15" s="3">
         <v>2000</v>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5689000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5781000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5355000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5302000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5376000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5282000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5201000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4448000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3516000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4377000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5224000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5069000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5373000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5205000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5395000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5140000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5410000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5040000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4890000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4663000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4492000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4049000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3979000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>897000</v>
+      </c>
+      <c r="E18" s="3">
         <v>604000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>495000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>666000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>735000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>810000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>629000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>670000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>336000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>634000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>354000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>699000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>848000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>799000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>731000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>803000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>722000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>530000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>586000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>622000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>586000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>540000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>524000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,378 +1546,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>45000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>37000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>73000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>35000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>49000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>44000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>31000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>82000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>52000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>78000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>21000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>17000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>18000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>26000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1056000</v>
+      </c>
+      <c r="E21" s="3">
         <v>756000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>705000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>863000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>975000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>981000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>838000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>877000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>550000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>846000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>564000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>959000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1058000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>897000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>983000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>897000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>701000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>770000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>789000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>765000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>705000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>665000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>23000</v>
       </c>
       <c r="L22" s="3">
         <v>23000</v>
       </c>
       <c r="M22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N22" s="3">
         <v>22000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>32000</v>
       </c>
       <c r="Q22" s="3">
         <v>32000</v>
       </c>
       <c r="R22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="S22" s="3">
         <v>30000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>28000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>24000</v>
       </c>
       <c r="U22" s="3">
         <v>24000</v>
       </c>
       <c r="V22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="W22" s="3">
         <v>18000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>21000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>18000</v>
       </c>
       <c r="Y22" s="3">
         <v>18000</v>
       </c>
       <c r="Z22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E23" s="3">
         <v>578000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>514000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>675000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>779000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>783000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>635000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>686000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>362000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>655000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>363000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>755000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>871000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>845000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>710000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>805000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>715000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>523000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>596000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>622000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>599000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>548000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>508000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E24" s="3">
         <v>155000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>114000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>134000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>167000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>172000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>125000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>182000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>127000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>139000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>186000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>176000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>171000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>141000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>155000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>124000</v>
       </c>
       <c r="U24" s="3">
         <v>124000</v>
       </c>
       <c r="V24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="W24" s="3">
         <v>165000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>158000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>143000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>112000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E26" s="3">
         <v>423000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>541000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>612000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>611000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>510000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>504000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>269000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>528000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>298000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>616000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>685000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>669000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>539000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>664000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>560000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>399000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>472000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>457000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>441000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>405000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>396000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E27" s="3">
         <v>418000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>394000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>534000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>603000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>501000</v>
       </c>
       <c r="J27" s="3">
         <v>501000</v>
       </c>
       <c r="K27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="L27" s="3">
         <v>276000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>511000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>622000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>675000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>663000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>508000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>658000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>551000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>399000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>507000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>453000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>424000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>396000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>378000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2205,17 +2266,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2223,23 +2284,23 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>71000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>34000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-6000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-74000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-45000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-37000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-73000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-35000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-49000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-44000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-31000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-82000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-52000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-21000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-17000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-18000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E33" s="3">
         <v>418000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>394000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>534000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>603000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>501000</v>
       </c>
       <c r="J33" s="3">
         <v>501000</v>
       </c>
       <c r="K33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="L33" s="3">
         <v>276000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>511000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>622000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>675000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>663000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>579000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>692000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>545000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>325000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-274000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>453000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>424000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>396000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>378000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E35" s="3">
         <v>418000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>394000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>534000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>603000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>501000</v>
       </c>
       <c r="J35" s="3">
         <v>501000</v>
       </c>
       <c r="K35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="L35" s="3">
         <v>276000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>511000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>622000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>675000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>663000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>579000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>692000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>545000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>325000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-274000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>453000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>424000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>396000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>378000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,674 +2918,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2462000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2276000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2592000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2588000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2481000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2958000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3401000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2967000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1751000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1691000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1129000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1560000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1397000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1328000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1303000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1222000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1318000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1207000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1369000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1290000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1293000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1322000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1120000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E42" s="3">
         <v>527000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>595000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>430000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>438000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>397000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>461000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>345000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>353000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>339000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>341000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>303000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>335000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>246000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>222000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>185000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>214000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>180000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>198000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>154000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>174000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>145000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>260000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4368000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3990000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4152000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4132000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4209000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3820000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3628000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3441000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3505000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3670000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3934000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4179000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4025000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3866000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3929000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4095000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3845000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3618000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3810000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3553000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3247000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3025000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4765000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4586000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4355000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4322000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4076000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3753000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3425000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3470000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3655000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3579000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3486000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3821000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3896000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3893000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3759000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3831000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3559000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3411000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3166000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3146000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2982000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2894000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2675000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>843000</v>
+      </c>
+      <c r="E45" s="3">
         <v>839000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>777000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>828000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>804000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>805000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>790000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>652000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>634000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>676000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>761000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>610000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>643000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>599000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>668000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>696000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>649000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>558000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>577000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>656000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>551000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>627000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12762000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12596000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12309000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12320000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11931000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12122000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11897000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11062000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9834000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9790000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9387000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10228000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10450000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10091000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9818000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9863000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9835000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9201000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8928000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9056000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8602000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8159000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7707000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1592000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1538000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1543000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1494000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1592000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1441000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1418000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1362000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1304000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1237000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1250000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1274000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1303000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1222000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1255000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1303000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1288000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1156000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1213000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1162000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1059000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>946000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4819000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4821000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4866000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4640000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4632000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4662000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4693000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4087000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4067000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4128000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4741000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4502000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4511000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4482000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4096000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3870000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3824000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3892000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3927000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3816000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3787000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3802000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3800000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2445000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2203000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2187000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2210000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2233000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2254000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2256000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2278000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2301000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2248000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2289000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2310000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2026000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2020000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2035000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2060000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2019000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2045000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2055000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>827000</v>
       </c>
       <c r="X49" s="3">
         <v>827000</v>
       </c>
       <c r="Y49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>812000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2907000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2910000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2810000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2350000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2318000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2332000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2337000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2723000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2750000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2606000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2083000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2056000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1993000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1891000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1944000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1934000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1966000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2009000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1907000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1882000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1787000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1746000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24477000</v>
+      </c>
+      <c r="E54" s="3">
         <v>24122000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23710000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23063000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22608000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22962000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22624000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21568000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20314000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20076000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19737000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20346000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20254000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19846000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19062000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18992000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18915000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18392000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18075000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17992000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16260000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15634000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>15011000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,452 +4054,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3405000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3497000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3021000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3210000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3172000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3279000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2820000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2597000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2281000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2648000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2534000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2830000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2991000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3018000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2822000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2980000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2981000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2854000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2579000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2486000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2300000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2168000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1854000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E58" s="3">
         <v>623000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>580000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>340000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>311000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>471000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>554000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>503000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2202000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1771000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>791000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1042000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>599000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>816000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>879000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>902000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>906000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>706000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>418000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>640000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>233000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>369000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>288000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3331000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3392000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3483000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3311000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3121000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2910000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2961000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2609000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2433000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2563000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2935000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2853000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2699000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2593000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2683000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2534000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2217000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2272000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2680000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2632000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2361000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2125000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2183000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7671000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7512000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7084000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6861000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6604000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6660000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6335000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5709000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6916000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6982000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6260000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6725000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6289000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6427000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6384000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6416000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6104000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5832000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5677000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5758000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4894000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4662000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4325000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3490000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3502000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3579000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3602000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3620000</v>
       </c>
       <c r="H61" s="3">
         <v>3620000</v>
       </c>
       <c r="I61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="J61" s="3">
         <v>3610000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3609000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1639000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1580000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1576000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1619000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1624000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1605000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1597000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1563000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1556000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1571000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1588000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1615000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1564000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1576000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1568000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3661000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3745000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3646000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3597000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3591000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3651000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3690000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3609000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3629000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3496000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3436000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3249000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3145000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3087000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2822000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2953000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3061000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2693000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2646000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2058000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1980000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1920000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1944000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15739000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15686000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15236000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14981000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14742000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14853000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14562000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13868000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13122000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13008000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12230000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12536000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11976000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12026000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11714000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11801000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11616000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10998000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10816000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10363000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8767000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8469000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8136000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17450000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16952000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16741000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16555000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16228000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15825000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15419000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15118000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14811000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14728000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14416000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14315000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13897000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13401000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12917000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12519000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12009000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11641000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11464000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11791000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11517000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11265000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11040000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8738000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8436000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8474000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8082000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7866000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8109000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8062000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7700000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7192000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7068000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7507000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7810000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8278000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7820000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7348000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7191000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7299000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7394000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7259000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7629000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7493000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7165000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6875000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E81" s="3">
         <v>418000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>394000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>534000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>603000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>501000</v>
       </c>
       <c r="J81" s="3">
         <v>501000</v>
       </c>
       <c r="K81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="L81" s="3">
         <v>276000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>511000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>622000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>675000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>663000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>579000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>692000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>545000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>325000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-274000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>453000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>424000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>396000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>378000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E83" s="3">
         <v>161000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>165000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>160000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>167000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>170000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>174000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>166000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>165000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>168000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>179000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>178000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>158000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>157000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>155000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>148000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>154000</v>
       </c>
       <c r="T83" s="3">
         <v>154000</v>
       </c>
       <c r="U83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="V83" s="3">
         <v>150000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>149000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>145000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>139000</v>
       </c>
       <c r="Y83" s="3">
         <v>139000</v>
       </c>
       <c r="Z83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E89" s="3">
         <v>164000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>732000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>569000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>616000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>339000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1142000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1223000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>379000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>838000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1123000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>808000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>412000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>990000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>915000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>590000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-117000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>806000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>645000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>447000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>379000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>625000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-104000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-372000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-150000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-125000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-87000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-260000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-116000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-305000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-153000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-133000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-348000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-175000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-114000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-72000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-224000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-101000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-108000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-480000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-566000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-595000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-132000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-121000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-382000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-103000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-135000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-321000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-418000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-340000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-455000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-283000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-266000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-626000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-133000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-327000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,82 +6716,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-207000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-208000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-207000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-197000</v>
       </c>
       <c r="H96" s="3">
         <v>-197000</v>
       </c>
       <c r="I96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-194000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-193000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-195000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-199000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-179000</v>
       </c>
       <c r="P96" s="3">
         <v>-179000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-181000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-182000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-177000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-179000</v>
       </c>
       <c r="V96" s="3">
         <v>-179000</v>
       </c>
       <c r="W96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-171000</v>
       </c>
       <c r="Y96" s="3">
         <v>-171000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-497000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-148000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-357000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-977000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-745000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-284000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>104000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>226000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>234000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-897000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-487000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-364000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-347000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-440000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-707000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-201000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-52000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-474000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-56000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-380000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-164000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-368000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E101" s="3">
         <v>27000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>27000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-42000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>48000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-51000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-55000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-35000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>31000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-14000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-21000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-78000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>43000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>34000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>37000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>14000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-61000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-316000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>107000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-477000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-443000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>434000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1216000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>562000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-431000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>163000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>69000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>81000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-96000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>111000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-162000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>79000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-29000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>202000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-131000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,357 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7333000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6586000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6385000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5850000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5968000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6111000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6092000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5830000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5118000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3852000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5011000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5578000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5768000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6221000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6004000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6126000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5943000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6132000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5570000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5476000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5285000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5078000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4589000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4503000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5693000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4900000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4794000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4533000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4554000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4633000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4606000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4469000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3769000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2962000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3717000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4265000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4274000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4580000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4472000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4580000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4392000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4692000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4370000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4100000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3944000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3827000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3457000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3383000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1686000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1591000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1317000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1414000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1478000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1486000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1361000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1349000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>890000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1294000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1313000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1494000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1641000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1532000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1546000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1551000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1440000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1376000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1341000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1251000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1132000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1120000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,85 +1043,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E12" s="3">
         <v>299000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>298000</v>
       </c>
-      <c r="F12" s="3">
-        <v>123000</v>
-      </c>
       <c r="G12" s="3">
-        <v>107000</v>
+        <v>288000</v>
       </c>
       <c r="H12" s="3">
-        <v>110000</v>
+        <v>266000</v>
       </c>
       <c r="I12" s="3">
-        <v>91000</v>
+        <v>276000</v>
       </c>
       <c r="J12" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K12" s="3">
         <v>82000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>59000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>70000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>93000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>65000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>93000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>81000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>90000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>229000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>219000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>210000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>208000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>213000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>175000</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>158000</v>
       </c>
       <c r="Z12" s="3">
         <v>158000</v>
       </c>
       <c r="AA12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AB12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,135 +1201,141 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-44000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>199000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>121000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>20000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>1000</v>
       </c>
       <c r="Z14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E15" s="3">
         <v>9000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5000</v>
       </c>
-      <c r="F15" s="3">
-        <v>170000</v>
-      </c>
       <c r="G15" s="3">
-        <v>165000</v>
+        <v>5000</v>
       </c>
       <c r="H15" s="3">
-        <v>171000</v>
+        <v>6000</v>
       </c>
       <c r="I15" s="3">
-        <v>175000</v>
+        <v>5000</v>
       </c>
       <c r="J15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K15" s="3">
         <v>179000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>170000</v>
       </c>
       <c r="L15" s="3">
         <v>170000</v>
       </c>
       <c r="M15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="N15" s="3">
         <v>173000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>183000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>182000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>163000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>161000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>159000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>5000</v>
       </c>
       <c r="T15" s="3">
         <v>5000</v>
@@ -1324,13 +1347,13 @@
         <v>5000</v>
       </c>
       <c r="W15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X15" s="3">
         <v>4000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>2000</v>
       </c>
       <c r="Z15" s="3">
         <v>2000</v>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6707000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5689000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5781000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5355000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5302000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5376000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5282000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5201000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4448000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3516000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4377000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5224000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5069000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5373000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5205000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5395000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5140000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5410000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5040000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4890000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4663000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4492000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4049000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3979000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E18" s="3">
         <v>897000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>604000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>495000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>666000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>735000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>810000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>629000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>670000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>336000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>634000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>354000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>699000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>848000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>799000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>731000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>803000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>722000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>530000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>586000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>622000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>586000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>540000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>524000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,393 +1580,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>45000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>37000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>73000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>35000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>49000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>44000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>31000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>82000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>52000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>78000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>21000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>17000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>18000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>26000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>885000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1056000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>756000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>705000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>863000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>975000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>981000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>838000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>877000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>550000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>846000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>564000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>959000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1034000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>897000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>983000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>897000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>701000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>770000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>789000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>765000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>705000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>665000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E22" s="3">
         <v>34000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>23000</v>
       </c>
       <c r="M22" s="3">
         <v>23000</v>
       </c>
       <c r="N22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="O22" s="3">
         <v>22000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>26000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>32000</v>
       </c>
       <c r="R22" s="3">
         <v>32000</v>
       </c>
       <c r="S22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="T22" s="3">
         <v>30000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>28000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>24000</v>
       </c>
       <c r="V22" s="3">
         <v>24000</v>
       </c>
       <c r="W22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="X22" s="3">
         <v>18000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>21000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>18000</v>
       </c>
       <c r="Z22" s="3">
         <v>18000</v>
       </c>
       <c r="AA22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E23" s="3">
         <v>855000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>578000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>514000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>675000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>779000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>783000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>635000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>686000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>362000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>655000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>363000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>755000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>871000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>845000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>710000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>805000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>715000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>523000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>596000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>622000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>599000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>548000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>508000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E24" s="3">
         <v>148000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>155000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>114000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>134000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>167000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>172000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>125000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>182000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>93000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>127000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>139000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>186000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>176000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>171000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>141000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>155000</v>
-      </c>
-      <c r="U24" s="3">
-        <v>124000</v>
       </c>
       <c r="V24" s="3">
         <v>124000</v>
       </c>
       <c r="W24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="X24" s="3">
         <v>165000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>158000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>143000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>112000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E26" s="3">
         <v>707000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>423000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>541000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>612000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>611000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>510000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>504000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>269000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>528000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>298000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>616000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>685000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>669000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>539000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>664000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>560000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>399000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>472000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>457000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>441000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>405000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>396000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E27" s="3">
         <v>702000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>418000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>394000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>534000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>603000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>501000</v>
       </c>
       <c r="K27" s="3">
         <v>501000</v>
       </c>
       <c r="L27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="M27" s="3">
         <v>276000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>511000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>622000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>675000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>663000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>508000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>658000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>551000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>399000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>507000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>453000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>424000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>396000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>378000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2269,17 +2330,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2287,23 +2348,23 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>71000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>34000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-6000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-74000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2538,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E32" s="3">
         <v>8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-45000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-37000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-73000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-35000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-49000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-44000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-31000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-82000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-78000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-21000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-17000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-18000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E33" s="3">
         <v>702000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>418000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>394000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>534000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>603000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>501000</v>
       </c>
       <c r="K33" s="3">
         <v>501000</v>
       </c>
       <c r="L33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="M33" s="3">
         <v>276000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>511000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>622000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>675000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>663000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>579000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>692000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>545000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>325000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-274000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>453000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>424000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>396000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>378000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E35" s="3">
         <v>702000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>418000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>394000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>534000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>603000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>501000</v>
       </c>
       <c r="K35" s="3">
         <v>501000</v>
       </c>
       <c r="L35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="M35" s="3">
         <v>276000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>511000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>622000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>675000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>663000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>579000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>692000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>545000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>325000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-274000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>453000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>424000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>396000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>378000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,701 +3005,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2499000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2462000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2276000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2592000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2588000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2481000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2958000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3401000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2967000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1751000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1691000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1129000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1560000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1397000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1328000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1303000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1222000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1318000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1207000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1369000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1290000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1293000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1322000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1120000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E42" s="3">
         <v>536000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>527000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>595000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>430000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>438000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>397000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>461000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>345000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>353000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>339000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>341000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>303000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>335000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>246000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>222000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>185000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>214000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>180000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>198000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>154000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>174000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>145000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>260000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4799000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4156000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4368000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3990000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4152000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4132000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4209000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3820000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3628000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3441000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3505000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3670000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3934000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4179000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4025000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3866000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3929000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4095000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3845000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3618000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3810000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3553000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3247000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3025000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5543000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4765000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4586000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4355000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4322000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4076000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3753000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3425000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3470000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3655000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3579000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3486000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3821000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3896000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3893000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3759000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3831000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3559000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3411000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3166000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3146000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2982000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2894000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2675000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1091000</v>
+      </c>
+      <c r="E45" s="3">
         <v>843000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>839000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>777000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>828000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>804000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>805000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>790000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>652000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>634000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>676000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>761000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>610000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>643000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>599000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>668000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>696000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>649000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>558000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>577000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>656000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>551000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>627000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14398000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12762000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12596000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12309000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12320000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11931000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12122000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11897000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11062000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9834000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9790000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9387000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10228000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10450000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10091000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9818000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9863000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9835000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9201000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8928000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9056000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8602000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8159000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7707000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1544000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1592000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1538000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1543000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1494000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1592000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1441000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1418000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1362000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1304000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1237000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1250000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1274000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1303000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1222000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1255000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1303000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1288000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1156000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1213000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1162000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1059000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>946000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5672000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4819000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4821000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4866000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4640000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4632000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4662000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4693000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4087000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4067000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4128000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4741000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4502000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4511000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4482000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4096000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3870000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3824000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3892000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3927000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3816000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3787000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3802000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3800000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4831000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2445000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2203000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2187000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2210000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2233000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2254000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2256000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2278000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2301000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2248000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2289000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2310000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2026000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2020000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2035000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2060000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2019000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2045000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2055000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>827000</v>
       </c>
       <c r="Y49" s="3">
         <v>827000</v>
       </c>
       <c r="Z49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>812000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3883,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3042000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2907000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2910000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2810000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2350000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2318000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2332000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2337000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2723000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2750000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2606000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2083000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2056000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1993000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1950000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1891000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1944000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1934000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1966000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2009000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1907000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1882000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1787000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1746000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29769000</v>
+      </c>
+      <c r="E54" s="3">
         <v>24477000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24122000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23710000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23063000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22608000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22962000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22624000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21568000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20314000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20076000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19737000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20346000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20254000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19846000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19062000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18992000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18915000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18392000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18075000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17992000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16260000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>15634000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>15011000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,470 +4185,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3405000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3497000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3021000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3210000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3172000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3279000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2820000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2597000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2281000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2648000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2534000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2830000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2991000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3018000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2822000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2980000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2981000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2854000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2579000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2486000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2300000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2168000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1854000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2665000</v>
+      </c>
+      <c r="E58" s="3">
         <v>935000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>623000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>580000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>340000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>311000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>471000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>554000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>503000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2202000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1771000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>791000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1042000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>599000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>816000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>879000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>902000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>906000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>706000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>418000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>640000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>233000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>369000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>288000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3865000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3331000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3392000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3483000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3311000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3121000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2910000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2961000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2609000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2433000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2563000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2935000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2853000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2699000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2593000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2683000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2534000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2217000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2272000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2680000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2632000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2361000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2125000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2183000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10530000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7671000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7512000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7084000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6861000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6604000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6660000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6335000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5709000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6916000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6982000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6260000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6725000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6289000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6427000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6384000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6416000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6104000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5832000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5677000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5758000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4894000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4662000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4325000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5450000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3490000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3502000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3579000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3602000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3620000</v>
       </c>
       <c r="I61" s="3">
         <v>3620000</v>
       </c>
       <c r="J61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3610000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3609000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1639000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1580000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1576000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1619000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1624000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1605000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1597000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1563000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1556000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1571000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1588000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1615000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1564000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1576000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1568000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4179000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3661000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3745000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3646000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3597000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3591000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3651000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3690000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3609000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3629000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3496000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3436000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3249000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3145000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3087000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2822000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2953000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3061000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2693000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2646000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2058000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1980000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1920000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1944000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21389000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15739000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15686000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15236000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14981000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14742000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14853000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14562000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13868000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13122000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13008000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12230000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12536000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11976000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12026000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11714000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11801000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11616000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10998000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10816000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10363000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8767000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8469000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8136000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17628000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17450000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16952000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16741000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16555000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16228000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15825000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15419000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15118000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14811000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14728000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14416000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14315000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13897000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13401000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12917000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12519000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12009000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11641000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11464000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11791000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11517000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11265000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11040000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8380000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8738000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8436000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8474000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8082000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7866000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8109000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8062000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7700000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7192000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7068000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7507000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7810000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8278000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7820000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7348000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7191000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7299000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7394000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7259000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7629000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7493000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7165000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6875000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E81" s="3">
         <v>702000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>418000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>394000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>534000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>603000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>501000</v>
       </c>
       <c r="K81" s="3">
         <v>501000</v>
       </c>
       <c r="L81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="M81" s="3">
         <v>276000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>511000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>622000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>675000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>663000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>579000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>692000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>545000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>325000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-274000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>453000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>424000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>396000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>378000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6010,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E83" s="3">
         <v>167000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>161000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>165000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>160000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>167000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>170000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>174000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>166000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>165000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>168000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>179000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>178000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>158000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>157000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>155000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>148000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>154000</v>
       </c>
       <c r="U83" s="3">
         <v>154000</v>
       </c>
       <c r="V83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="W83" s="3">
         <v>150000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>149000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>145000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>139000</v>
       </c>
       <c r="Z83" s="3">
         <v>139000</v>
       </c>
       <c r="AA83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E89" s="3">
         <v>599000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>164000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>732000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>569000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>616000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>339000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1142000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1223000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>379000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>838000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1123000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>808000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>412000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>990000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>915000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>590000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-117000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>806000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>645000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>447000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>379000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>625000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-147000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-104000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-372000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-150000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-125000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-87000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-260000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-116000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-75000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-305000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-153000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-109000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-348000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-175000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-114000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-72000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-224000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-101000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-108000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-480000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2920000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-566000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-595000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-132000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-121000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-382000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-135000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-321000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-418000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-340000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-71000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-455000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-283000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-266000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-626000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-133000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-27000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-327000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,85 +6950,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-204000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-207000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-208000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-207000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-197000</v>
       </c>
       <c r="I96" s="3">
         <v>-197000</v>
       </c>
       <c r="J96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-200000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-194000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-193000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-195000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-199000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-179000</v>
       </c>
       <c r="Q96" s="3">
         <v>-179000</v>
       </c>
       <c r="R96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-181000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-182000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-177000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-179000</v>
       </c>
       <c r="W96" s="3">
         <v>-179000</v>
       </c>
       <c r="X96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-171000</v>
       </c>
       <c r="Z96" s="3">
         <v>-171000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2502000</v>
+      </c>
+      <c r="E100" s="3">
         <v>106000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-497000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-148000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-357000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-977000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-745000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-284000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>104000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>226000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>234000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-897000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-487000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-364000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-347000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-440000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-707000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-201000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-52000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-474000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-56000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-380000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-164000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-368000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E101" s="3">
         <v>47000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>27000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>27000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-42000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>48000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-51000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-55000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>31000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-21000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-78000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>43000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>34000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>37000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>14000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-61000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E102" s="3">
         <v>186000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-316000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>107000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-477000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-443000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>434000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1216000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>562000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-431000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>163000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>69000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>81000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-96000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>111000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-162000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>79000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>202000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-131000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44290</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7770000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7333000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6586000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6385000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5850000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5968000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6111000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6092000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5830000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5118000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3852000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5011000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5578000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5768000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6221000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6004000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6126000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5943000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6132000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5570000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5476000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5285000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5078000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4589000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4503000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5951000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5693000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4900000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4794000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4533000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4554000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4633000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4606000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4469000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3769000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2962000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3717000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4265000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4274000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4580000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4472000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4580000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4392000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4692000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4370000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4100000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3944000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3827000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3457000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3383000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1819000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1640000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1686000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1591000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1317000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1414000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1478000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1486000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1361000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1349000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>890000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1294000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1313000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1494000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1641000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1532000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1546000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1551000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1440000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1376000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1341000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1251000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1132000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1120000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,88 +1056,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E12" s="3">
         <v>348000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>299000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>298000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>288000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>266000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>276000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>260000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>82000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>59000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>70000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>93000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>65000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>93000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>81000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>90000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>229000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>219000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>210000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>208000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>213000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>175000</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>158000</v>
       </c>
       <c r="AA12" s="3">
         <v>158000</v>
       </c>
       <c r="AB12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AC12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,141 +1220,147 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-44000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>199000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>121000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4000</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
         <v>1000</v>
       </c>
       <c r="AA14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E15" s="3">
         <v>25000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5000</v>
       </c>
       <c r="G15" s="3">
         <v>5000</v>
       </c>
       <c r="H15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I15" s="3">
         <v>6000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>179000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>170000</v>
       </c>
       <c r="M15" s="3">
         <v>170000</v>
       </c>
       <c r="N15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="O15" s="3">
         <v>173000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>183000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>182000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>163000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>161000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>159000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>5000</v>
       </c>
       <c r="U15" s="3">
         <v>5000</v>
@@ -1350,13 +1372,13 @@
         <v>5000</v>
       </c>
       <c r="X15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>4000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>2000</v>
       </c>
       <c r="AA15" s="3">
         <v>2000</v>
@@ -1364,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6968000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6707000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5689000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5781000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5355000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5302000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5376000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5282000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5201000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4448000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3516000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4377000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5224000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5069000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5373000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5205000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5395000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5140000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5410000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5040000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4890000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4663000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4492000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4049000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3979000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E18" s="3">
         <v>626000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>897000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>604000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>495000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>666000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>735000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>810000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>629000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>670000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>336000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>634000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>354000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>699000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>848000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>799000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>731000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>803000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>722000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>530000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>586000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>622000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>586000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>540000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>524000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,408 +1613,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E20" s="3">
         <v>43000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>45000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>37000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>73000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>49000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>44000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>31000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>82000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>52000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>78000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>21000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>17000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>18000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>34000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>26000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E21" s="3">
         <v>885000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1056000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>756000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>705000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>863000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>975000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>981000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>838000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>877000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>550000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>846000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>564000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>959000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1058000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1034000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>897000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>983000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>897000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>701000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>770000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>789000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>765000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>705000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>665000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E22" s="3">
         <v>61000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>23000</v>
       </c>
       <c r="N22" s="3">
         <v>23000</v>
       </c>
       <c r="O22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="P22" s="3">
         <v>22000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>26000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>32000</v>
       </c>
       <c r="S22" s="3">
         <v>32000</v>
       </c>
       <c r="T22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="U22" s="3">
         <v>30000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>28000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>24000</v>
       </c>
       <c r="W22" s="3">
         <v>24000</v>
       </c>
       <c r="X22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>18000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>21000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>18000</v>
       </c>
       <c r="AA22" s="3">
         <v>18000</v>
       </c>
       <c r="AB22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>778000</v>
+      </c>
+      <c r="E23" s="3">
         <v>608000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>855000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>578000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>514000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>675000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>779000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>783000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>635000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>686000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>362000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>655000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>363000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>755000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>871000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>845000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>710000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>805000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>715000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>523000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>596000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>622000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>599000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>548000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>508000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E24" s="3">
         <v>199000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>148000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>155000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>114000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>134000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>167000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>172000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>125000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>182000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>93000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>127000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>65000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>139000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>186000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>176000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>171000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>141000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>155000</v>
-      </c>
-      <c r="V24" s="3">
-        <v>124000</v>
       </c>
       <c r="W24" s="3">
         <v>124000</v>
       </c>
       <c r="X24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="Y24" s="3">
         <v>165000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>158000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>143000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>112000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E26" s="3">
         <v>409000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>707000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>423000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>541000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>612000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>611000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>510000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>504000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>269000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>528000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>298000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>616000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>685000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>669000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>539000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>664000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>560000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>399000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>472000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>457000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>441000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>405000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>396000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E27" s="3">
         <v>400000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>702000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>418000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>394000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>534000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>603000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>501000</v>
       </c>
       <c r="L27" s="3">
         <v>501000</v>
       </c>
       <c r="M27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="N27" s="3">
         <v>276000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>511000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>622000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>675000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>663000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>508000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>658000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>551000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>399000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>507000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>453000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>424000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>396000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>378000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2333,17 +2393,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2351,23 +2411,23 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>71000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>34000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-6000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-74000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2381,8 +2441,11 @@
       <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-43000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-45000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-37000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-73000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-49000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-44000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-31000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-52000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-78000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-21000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-17000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E33" s="3">
         <v>400000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>702000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>418000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>394000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>534000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>603000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>501000</v>
       </c>
       <c r="L33" s="3">
         <v>501000</v>
       </c>
       <c r="M33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="N33" s="3">
         <v>276000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>511000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>622000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>675000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>663000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>579000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>692000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>545000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>325000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-274000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>453000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>424000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>396000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>378000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E35" s="3">
         <v>400000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>702000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>418000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>394000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>534000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>603000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>501000</v>
       </c>
       <c r="L35" s="3">
         <v>501000</v>
       </c>
       <c r="M35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="N35" s="3">
         <v>276000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>511000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>622000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>675000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>663000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>579000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>692000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>545000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>325000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-274000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>453000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>424000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>396000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>378000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44381</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44290</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,728 +3091,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2499000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2462000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2276000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2592000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2588000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2481000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2958000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3401000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2967000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1751000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1691000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1129000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1560000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1397000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1328000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1303000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1222000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1318000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1207000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1369000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1290000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1293000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1322000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1120000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E42" s="3">
         <v>466000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>536000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>527000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>595000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>430000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>438000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>397000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>461000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>345000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>353000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>339000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>341000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>303000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>335000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>246000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>222000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>185000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>214000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>180000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>198000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>154000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>174000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>145000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>260000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5202000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4799000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4156000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4368000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3990000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4152000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4132000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4209000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3820000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3628000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3441000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3505000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3670000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3934000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4179000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4025000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3866000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3929000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4095000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3845000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3618000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3810000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3553000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3247000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3025000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5603000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5543000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4765000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4586000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4355000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4322000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4076000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3753000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3425000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3470000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3655000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3579000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3486000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3821000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3896000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3893000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3759000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3831000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3559000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3411000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3166000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3146000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2982000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2894000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2675000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1091000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>843000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>839000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>777000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>828000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>804000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>805000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>790000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>652000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>634000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>676000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>761000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>610000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>643000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>599000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>668000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>696000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>649000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>558000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>577000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>656000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>600000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>551000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>627000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14451000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14398000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12762000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12596000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12309000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12320000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11931000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12122000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11897000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11062000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9834000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9790000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9387000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10228000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10450000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10091000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9818000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9863000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9835000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9201000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8928000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9056000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8602000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8159000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7707000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1759000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1826000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1544000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1592000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1538000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1543000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1494000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1592000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1441000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1418000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1362000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1304000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1237000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1250000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1274000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1303000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1222000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1255000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1303000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1288000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1156000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1213000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1162000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1059000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>946000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6013000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5672000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4819000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4821000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4866000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4640000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4632000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4662000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4693000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4087000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4067000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4128000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4741000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4502000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4511000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4482000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4096000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3870000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3824000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3892000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3927000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3816000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3787000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3802000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3800000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5030000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4831000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2445000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2203000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2187000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2210000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2233000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2254000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2256000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2278000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2301000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2248000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2289000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2310000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2026000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2020000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2035000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2060000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2019000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2045000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2055000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>827000</v>
       </c>
       <c r="Z49" s="3">
         <v>827000</v>
       </c>
       <c r="AA49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="AB49" s="3">
         <v>812000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,88 +4002,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3046000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3042000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2907000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2910000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2810000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2350000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2318000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2332000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2337000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2723000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2750000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2606000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2083000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2056000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1993000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1950000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1891000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1944000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1934000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1966000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2009000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1907000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1882000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1787000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1746000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30299000</v>
+      </c>
+      <c r="E54" s="3">
         <v>29769000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24477000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24122000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23710000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23063000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22608000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22962000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22624000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21568000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20314000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20076000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19737000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20346000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20254000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19846000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19062000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18992000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18915000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18392000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18075000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17992000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16260000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>15634000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>15011000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,488 +4315,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4252000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3405000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3497000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3021000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3210000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3172000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3279000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2820000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2597000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2281000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2648000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2534000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2830000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2991000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3018000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2822000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2980000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2981000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2854000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2579000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2486000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2300000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2168000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1854000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3357000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2665000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>935000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>623000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>580000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>340000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>311000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>471000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>554000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>503000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2202000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1771000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>791000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>599000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>816000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>879000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>902000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>906000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>706000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>418000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>640000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>233000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>369000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>288000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3812000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3865000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3331000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3392000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3483000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3311000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3121000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2910000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2961000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2609000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2433000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2563000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2935000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2853000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2699000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2593000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2683000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2534000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2217000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2272000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2680000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2632000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2361000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2125000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2183000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11421000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10530000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7671000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7512000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7084000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6861000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6604000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6660000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6335000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5709000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6916000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6982000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6260000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6725000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6289000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6427000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6384000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6416000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6104000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5832000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5677000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5758000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4894000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4662000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4325000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4498000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5450000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3490000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3502000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3579000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3602000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3620000</v>
       </c>
       <c r="J61" s="3">
         <v>3620000</v>
       </c>
       <c r="K61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="L61" s="3">
         <v>3610000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3609000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1639000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1580000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1576000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1619000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1624000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1605000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1597000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1563000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1556000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1571000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1588000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1615000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1564000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1576000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1568000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4155000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4179000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3661000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3745000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3646000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3597000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3591000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3651000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3690000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3609000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3629000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3496000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3436000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3249000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3145000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3087000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2822000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2953000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3061000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2693000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2646000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2058000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1980000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1920000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1944000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21324000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21389000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15739000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15686000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15236000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14981000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14742000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14853000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14562000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13868000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13122000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13008000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12230000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12536000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11976000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12026000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11714000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11801000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11616000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10998000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10816000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10363000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8767000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8469000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8136000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18037000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17628000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17450000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16952000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16741000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16555000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16228000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15825000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15419000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15118000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14811000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14728000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14416000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14315000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13897000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13401000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12917000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12519000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12009000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11641000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11464000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11791000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11517000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11265000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11040000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8975000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8380000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8738000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8436000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8474000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8082000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7866000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8109000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8062000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7700000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7192000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7068000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7507000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7810000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8278000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7820000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7348000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7191000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7299000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7394000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7259000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7629000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7493000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7165000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6875000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44381</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44290</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E81" s="3">
         <v>400000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>702000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>418000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>394000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>534000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>603000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>501000</v>
       </c>
       <c r="L81" s="3">
         <v>501000</v>
       </c>
       <c r="M81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="N81" s="3">
         <v>276000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>511000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>622000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>675000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>663000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>579000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>692000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>545000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>325000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-274000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>453000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>424000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>396000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>378000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E83" s="3">
         <v>216000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>167000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>161000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>165000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>160000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>167000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>170000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>174000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>166000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>165000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>168000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>179000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>178000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>158000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>157000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>155000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>148000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>154000</v>
       </c>
       <c r="V83" s="3">
         <v>154000</v>
       </c>
       <c r="W83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="X83" s="3">
         <v>150000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>149000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>145000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>139000</v>
       </c>
       <c r="AA83" s="3">
         <v>139000</v>
       </c>
       <c r="AB83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E89" s="3">
         <v>382000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>599000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>164000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>732000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>569000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>616000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>339000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1142000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1223000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>379000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>838000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1123000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>808000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>412000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>990000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>915000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>590000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-117000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>806000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>645000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>447000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>379000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>625000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-463000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-202000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-147000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-104000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-372000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-150000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-125000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-87000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-260000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-116000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-75000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-305000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-133000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-109000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-348000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-175000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-114000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-72000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-224000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-101000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-108000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-480000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-676000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2920000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-566000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-595000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-132000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-121000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-382000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-103000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-135000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-99000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-321000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-418000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-340000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-455000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-283000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-266000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-626000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-133000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-327000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6960,79 +7193,82 @@
         <v>-222000</v>
       </c>
       <c r="E96" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-204000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-207000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-208000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-207000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-197000</v>
       </c>
       <c r="J96" s="3">
         <v>-197000</v>
       </c>
       <c r="K96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-200000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-194000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-193000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-195000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-199000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-179000</v>
       </c>
       <c r="R96" s="3">
         <v>-179000</v>
       </c>
       <c r="S96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-181000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-182000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-177000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-179000</v>
       </c>
       <c r="X96" s="3">
         <v>-179000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-171000</v>
       </c>
       <c r="AA96" s="3">
         <v>-171000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7513,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-442000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2502000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>106000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-497000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-148000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-357000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-977000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-745000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-284000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>104000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>226000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>234000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-897000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-487000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-364000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-347000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-440000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-707000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-201000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-52000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-474000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-380000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-164000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-368000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E101" s="3">
         <v>73000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>47000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>27000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>27000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-42000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>48000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-51000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-35000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>31000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-21000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-78000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>43000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>34000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>37000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>14000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-61000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-398000</v>
+      </c>
+      <c r="E102" s="3">
         <v>37000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>186000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-316000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>107000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-477000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-443000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>434000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1216000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>562000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-431000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>163000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>69000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>81000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-96000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>111000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-162000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>79000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-29000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>202000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-131000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44472</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44381</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44290</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8453000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7770000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7333000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6586000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6385000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5850000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5968000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6111000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6092000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5830000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5118000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3852000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5011000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5578000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5768000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6221000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6004000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6126000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5943000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6132000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5570000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5476000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5285000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5078000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4589000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4503000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6424000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5951000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5693000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4900000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4794000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4533000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4554000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4633000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4606000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4469000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3769000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2962000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3717000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4265000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4274000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4580000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4472000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4580000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4392000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4692000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4370000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4100000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3944000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3827000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3457000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3383000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2029000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1819000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1640000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1686000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1591000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1317000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1414000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1478000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1486000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1361000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1349000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>890000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1294000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1313000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1494000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1641000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1532000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1546000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1551000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1440000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1200000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1376000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1341000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1251000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1132000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1120000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,91 +1070,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E12" s="3">
         <v>333000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>348000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>299000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>298000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>288000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>266000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>276000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>260000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>82000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>59000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>70000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>93000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>65000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>93000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>81000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>90000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>229000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>219000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>210000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>208000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>213000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>175000</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>158000</v>
       </c>
       <c r="AB12" s="3">
         <v>158000</v>
       </c>
       <c r="AC12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AD12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,147 +1240,153 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-44000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>199000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>121000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
         <v>1000</v>
       </c>
       <c r="AB14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E15" s="3">
         <v>31000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5000</v>
       </c>
       <c r="H15" s="3">
         <v>5000</v>
       </c>
       <c r="I15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J15" s="3">
         <v>6000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>179000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>170000</v>
       </c>
       <c r="N15" s="3">
         <v>170000</v>
       </c>
       <c r="O15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="P15" s="3">
         <v>173000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>183000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>182000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>163000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>161000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>159000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>5000</v>
       </c>
       <c r="V15" s="3">
         <v>5000</v>
@@ -1375,13 +1398,13 @@
         <v>5000</v>
       </c>
       <c r="Y15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>4000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>2000</v>
       </c>
       <c r="AB15" s="3">
         <v>2000</v>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7427000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6968000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6707000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5689000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5781000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5355000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5302000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5376000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5282000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5201000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4448000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3516000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4377000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5224000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5069000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5373000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5205000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5395000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5140000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5410000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5040000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4890000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4663000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4492000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4049000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3979000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="E18" s="3">
         <v>802000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>626000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>897000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>604000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>495000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>666000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>735000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>810000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>629000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>670000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>336000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>634000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>354000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>699000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>848000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>799000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>731000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>803000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>722000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>530000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>586000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>622000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>586000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>540000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>524000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,174 +1647,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E20" s="3">
         <v>63000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>43000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>45000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>37000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>73000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>41000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>49000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>44000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>31000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>82000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>52000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>78000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>21000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>17000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>26000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1105000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>885000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1056000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>756000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>705000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>863000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>975000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>981000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>838000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>877000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>550000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>846000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>564000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>959000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1058000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1034000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>897000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>983000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>897000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>701000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>770000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>789000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>765000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>705000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>665000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1789,248 +1829,257 @@
         <v>87000</v>
       </c>
       <c r="E22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F22" s="3">
         <v>61000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>29000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>23000</v>
       </c>
       <c r="O22" s="3">
         <v>23000</v>
       </c>
       <c r="P22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>22000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>32000</v>
       </c>
       <c r="T22" s="3">
         <v>32000</v>
       </c>
       <c r="U22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="V22" s="3">
         <v>30000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>28000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>24000</v>
       </c>
       <c r="X22" s="3">
         <v>24000</v>
       </c>
       <c r="Y22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>18000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>21000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>18000</v>
       </c>
       <c r="AB22" s="3">
         <v>18000</v>
       </c>
       <c r="AC22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="E23" s="3">
         <v>778000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>608000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>855000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>578000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>514000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>675000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>779000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>783000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>635000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>686000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>362000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>655000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>363000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>755000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>871000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>845000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>710000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>805000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>715000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>523000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>596000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>622000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>599000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>548000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>508000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E24" s="3">
         <v>134000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>199000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>148000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>155000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>114000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>134000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>167000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>172000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>125000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>182000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>93000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>127000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>139000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>186000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>176000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>171000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>141000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>155000</v>
-      </c>
-      <c r="W24" s="3">
-        <v>124000</v>
       </c>
       <c r="X24" s="3">
         <v>124000</v>
       </c>
       <c r="Y24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="Z24" s="3">
         <v>165000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>158000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>143000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>112000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>806000</v>
+      </c>
+      <c r="E26" s="3">
         <v>644000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>409000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>707000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>423000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>541000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>612000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>611000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>510000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>504000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>269000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>528000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>298000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>616000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>685000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>669000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>539000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>664000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>560000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>399000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>472000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>457000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>441000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>405000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>396000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E27" s="3">
         <v>631000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>702000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>418000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>394000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>534000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>603000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>501000</v>
       </c>
       <c r="M27" s="3">
         <v>501000</v>
       </c>
       <c r="N27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="O27" s="3">
         <v>276000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>511000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>622000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>675000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>663000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>508000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>658000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>551000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>399000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>507000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>453000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>424000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>396000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>378000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,17 +2457,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2414,23 +2475,23 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>71000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>34000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-6000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-74000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>10</v>
@@ -2444,8 +2505,11 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2677,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-63000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-43000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-45000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-37000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-73000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-41000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-49000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-44000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-82000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-52000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-78000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-21000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-17000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E33" s="3">
         <v>631000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>702000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>418000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>394000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>534000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>603000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>501000</v>
       </c>
       <c r="M33" s="3">
         <v>501000</v>
       </c>
       <c r="N33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="O33" s="3">
         <v>276000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>511000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>622000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>675000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>663000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>579000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>692000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>545000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>325000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-274000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>453000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>424000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>396000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>378000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E35" s="3">
         <v>631000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>702000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>418000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>394000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>534000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>603000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>501000</v>
       </c>
       <c r="M35" s="3">
         <v>501000</v>
       </c>
       <c r="N35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="O35" s="3">
         <v>276000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>511000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>622000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>675000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>663000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>579000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>692000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>545000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>325000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-274000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>453000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>424000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>396000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>378000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44472</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44381</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44290</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,755 +3178,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1980000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2101000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2499000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2462000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2276000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2592000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2588000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2481000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2958000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3401000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2967000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1751000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1691000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1129000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1560000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1397000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1328000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1303000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1222000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1318000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1207000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1369000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1290000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1293000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1322000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1120000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E42" s="3">
         <v>472000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>466000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>536000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>527000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>595000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>430000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>438000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>397000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>461000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>345000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>353000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>339000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>341000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>303000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>335000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>246000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>222000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>185000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>214000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>180000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>198000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>154000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>174000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>145000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>260000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5834000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5202000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4799000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4156000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4368000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3990000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4152000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4132000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4209000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3820000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3628000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3441000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3505000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3670000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3934000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4179000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4025000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3866000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3929000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4095000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3845000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3618000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3810000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3553000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3247000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3025000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5878000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5603000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5543000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4765000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4586000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4355000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4322000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4076000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3753000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3425000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3470000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3655000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3579000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3486000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3821000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3896000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3893000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3759000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3831000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3559000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3411000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3166000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3146000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2982000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2894000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2675000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1073000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1091000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>843000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>839000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>777000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>828000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>804000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>805000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>790000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>652000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>634000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>676000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>761000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>610000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>643000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>599000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>668000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>696000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>649000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>558000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>577000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>656000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>551000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>627000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15368000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14451000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14398000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12762000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12596000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12309000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12320000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11931000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12122000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11897000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11062000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9834000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9790000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9387000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10228000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10450000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10091000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9818000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9863000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9835000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9201000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8928000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9056000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8602000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8159000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7707000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1860000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1759000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1826000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1544000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1592000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1538000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1543000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1494000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1592000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1441000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1418000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1362000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1304000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1237000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1250000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1274000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1303000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1222000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1255000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1303000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1288000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1156000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1213000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1162000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1059000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>946000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6079000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6013000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5672000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4819000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4821000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4866000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4640000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4632000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4662000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4693000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4087000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4067000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4128000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4741000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4502000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4511000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4482000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4096000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3870000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3824000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3892000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3927000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3816000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3787000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3802000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3800000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5005000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5030000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4831000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2445000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2203000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2187000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2210000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2233000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2254000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2256000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2278000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2301000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2248000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2289000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2310000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2026000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2020000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2035000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2060000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2019000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2045000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2055000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>827000</v>
       </c>
       <c r="AA49" s="3">
         <v>827000</v>
       </c>
       <c r="AB49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="AC49" s="3">
         <v>812000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3121000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3046000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3042000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2907000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2910000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2810000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2350000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2318000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2332000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2337000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2723000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2750000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2606000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2083000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2056000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1993000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1950000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1891000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1944000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1934000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1966000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2009000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1907000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1882000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1787000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1746000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31433000</v>
+      </c>
+      <c r="E54" s="3">
         <v>30299000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29769000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24477000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24122000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23710000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23063000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22608000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22962000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22624000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21568000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20314000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20076000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19737000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20346000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20254000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19846000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19062000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18992000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18915000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18392000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18075000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17992000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>16260000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>15634000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>15011000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,506 +4446,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4636000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4252000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3405000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3497000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3021000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3210000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3172000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3279000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2820000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2597000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2281000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2648000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2534000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2830000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2991000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3018000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2822000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2980000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2981000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2854000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2579000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2486000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2300000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2168000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1854000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3343000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3357000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2665000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>935000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>623000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>580000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>340000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>311000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>471000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>554000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>503000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2202000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1771000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>791000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1042000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>599000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>816000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>879000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>902000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>906000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>706000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>418000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>640000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>233000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>369000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>288000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3944000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3812000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3865000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3331000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3392000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3483000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3311000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3121000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2910000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2961000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2609000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2433000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2563000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2935000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2853000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2699000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2593000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2683000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2534000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2217000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2272000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2680000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2632000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2361000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2125000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2183000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11923000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11421000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10530000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7671000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7512000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7084000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6861000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6604000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6660000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6335000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5709000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6916000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6982000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6260000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6725000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6289000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6427000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6384000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6416000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6104000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5832000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5677000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5758000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4894000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4662000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4325000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4409000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4498000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5450000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3490000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3502000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3579000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3602000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3620000</v>
       </c>
       <c r="K61" s="3">
         <v>3620000</v>
       </c>
       <c r="L61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="M61" s="3">
         <v>3610000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3609000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1639000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1580000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1576000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1619000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1624000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1605000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1597000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1563000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1556000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1571000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1588000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1615000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1564000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1576000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1568000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4220000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4155000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4179000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3661000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3745000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3646000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3597000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3591000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3651000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3690000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3609000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3629000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3496000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3436000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3249000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3145000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3087000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2822000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2953000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3061000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2693000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2646000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2058000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1980000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1920000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1944000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21810000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21324000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21389000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15739000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15686000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15236000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14981000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14742000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14853000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14562000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13868000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13122000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13008000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12230000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12536000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11976000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12026000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11714000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11801000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11616000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10998000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10816000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10363000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8767000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8469000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8136000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18605000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18037000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17628000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17450000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16952000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16741000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16555000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16228000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15825000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15419000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15118000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14811000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14728000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14416000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14315000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13897000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13401000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12917000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12519000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12009000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11641000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11464000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11791000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11517000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11265000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11040000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9623000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8975000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8380000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8738000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8436000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8474000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8082000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7866000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8109000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8062000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7700000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7192000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7068000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7507000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7810000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8278000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7820000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7348000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7191000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7299000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7394000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7259000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7629000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7493000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7165000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6875000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44472</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44381</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44290</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E81" s="3">
         <v>631000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>702000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>418000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>394000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>534000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>603000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>501000</v>
       </c>
       <c r="M81" s="3">
         <v>501000</v>
       </c>
       <c r="N81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="O81" s="3">
         <v>276000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>511000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>622000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>675000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>663000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>579000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>692000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>545000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>325000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-274000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>453000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>424000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>396000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>378000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6407,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E83" s="3">
         <v>240000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>216000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>167000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>161000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>165000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>160000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>167000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>170000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>174000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>166000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>165000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>168000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>179000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>178000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>158000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>157000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>155000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>148000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>154000</v>
       </c>
       <c r="W83" s="3">
         <v>154000</v>
       </c>
       <c r="X83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>150000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>149000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>145000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>139000</v>
       </c>
       <c r="AB83" s="3">
         <v>139000</v>
       </c>
       <c r="AC83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E89" s="3">
         <v>817000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>382000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>599000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>164000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>732000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>569000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>616000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>339000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1142000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1223000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>379000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>838000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1123000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>808000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>412000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>990000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>915000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>590000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-117000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>806000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>645000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>447000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>379000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>625000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-463000</v>
+        <v>-193000</v>
       </c>
       <c r="E91" s="3">
-        <v>-202000</v>
+        <v>-419000</v>
       </c>
       <c r="F91" s="3">
-        <v>-147000</v>
+        <v>-222000</v>
       </c>
       <c r="G91" s="3">
-        <v>-104000</v>
+        <v>-160000</v>
       </c>
       <c r="H91" s="3">
-        <v>-372000</v>
+        <v>-115000</v>
       </c>
       <c r="I91" s="3">
-        <v>-150000</v>
+        <v>-388000</v>
       </c>
       <c r="J91" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-125000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-87000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-260000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-116000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-77000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-75000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-305000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-153000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-133000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-109000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-348000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-175000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-114000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-72000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-224000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-101000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-108000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-480000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-676000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2920000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-566000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-595000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-132000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-121000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-382000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-103000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-135000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-99000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-321000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-418000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-340000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-455000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-283000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-36000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-266000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-626000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-133000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-327000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7196,79 +7430,82 @@
         <v>-222000</v>
       </c>
       <c r="F96" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-204000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-207000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-208000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-207000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-197000</v>
       </c>
       <c r="K96" s="3">
         <v>-197000</v>
       </c>
       <c r="L96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-200000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-194000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-193000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-195000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-199000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-179000</v>
       </c>
       <c r="S96" s="3">
         <v>-179000</v>
       </c>
       <c r="T96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-181000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-182000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-177000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-179000</v>
       </c>
       <c r="Y96" s="3">
         <v>-179000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-171000</v>
       </c>
       <c r="AB96" s="3">
         <v>-171000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-363000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-442000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2502000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>106000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-497000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-148000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-357000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-977000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-745000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-284000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>104000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>226000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>234000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-897000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-487000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-364000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-347000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-440000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-707000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-201000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-52000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-474000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-380000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-164000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-368000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-97000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>73000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>47000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>27000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>15000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>27000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-42000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>48000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-55000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-35000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>31000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-14000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-21000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-78000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>43000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>13000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>34000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>37000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>14000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-61000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-398000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>186000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-316000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>107000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-477000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-443000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>434000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1216000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>562000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-431000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>163000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>69000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-96000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>111000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-162000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>79000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-29000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>202000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-131000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,395 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44381</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44290</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8638000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8453000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7770000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7333000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6586000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6385000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5850000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5968000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6111000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6092000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5830000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5118000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3852000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5011000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5578000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5768000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6221000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6004000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6126000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5943000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6132000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5570000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5476000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5285000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5078000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4589000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4503000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6490000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6424000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5951000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5693000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4900000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4794000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4533000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4554000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4633000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4606000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4469000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3769000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2962000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3717000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4265000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4274000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4580000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4472000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4580000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4392000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4692000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4370000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4100000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3944000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3827000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3457000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3383000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2148000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2029000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1819000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1640000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1686000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1591000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1317000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1414000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1478000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1486000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1361000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1349000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>890000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1313000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1494000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1641000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1532000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1546000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1551000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1440000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1200000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1376000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1341000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1251000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1132000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1120000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,94 +1084,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E12" s="3">
         <v>350000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>333000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>348000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>299000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>298000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>288000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>266000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>276000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>260000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>82000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>59000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>70000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>93000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>65000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>93000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>81000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>90000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>229000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>219000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>210000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>208000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>213000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>175000</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>158000</v>
       </c>
       <c r="AC12" s="3">
         <v>158000</v>
       </c>
       <c r="AD12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AE12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,8 +1260,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1252,144 +1272,147 @@
         <v>1000</v>
       </c>
       <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-44000</v>
       </c>
-      <c r="H14" s="3">
-        <v>199000</v>
-      </c>
       <c r="I14" s="3">
+        <v>137000</v>
+      </c>
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>121000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>20000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4000</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="3">
         <v>1000</v>
       </c>
       <c r="AC14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-13000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E15" s="3">
         <v>32000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>31000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5000</v>
       </c>
       <c r="I15" s="3">
         <v>5000</v>
       </c>
       <c r="J15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>179000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>170000</v>
       </c>
       <c r="O15" s="3">
         <v>170000</v>
       </c>
       <c r="P15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>173000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>183000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>182000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>163000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>161000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>159000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>5000</v>
       </c>
       <c r="W15" s="3">
         <v>5000</v>
@@ -1401,13 +1424,13 @@
         <v>5000</v>
       </c>
       <c r="Z15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AA15" s="3">
         <v>4000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>2000</v>
       </c>
       <c r="AC15" s="3">
         <v>2000</v>
@@ -1415,8 +1438,11 @@
       <c r="AD15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7641000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7427000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6968000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6707000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5689000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5781000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5355000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5302000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5376000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5282000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5201000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4448000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3516000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4377000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5224000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5069000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5373000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5205000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5395000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5140000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5410000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5040000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4890000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4663000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4492000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4049000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3979000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1026000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>802000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>626000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>897000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>604000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>495000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>666000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>735000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>810000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>629000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>670000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>336000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>634000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>354000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>699000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>848000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>799000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>731000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>803000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>722000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>530000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>586000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>622000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>586000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>540000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>524000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,438 +1681,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E20" s="3">
         <v>90000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>63000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>43000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>45000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>37000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>73000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>41000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>49000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>44000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>31000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>82000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>52000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>78000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>21000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>17000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>34000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>18000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>34000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>26000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1362000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1105000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>885000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1056000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>756000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>705000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>863000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>975000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>981000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>838000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>877000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>550000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>846000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>564000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>959000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1058000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1034000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>897000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>983000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>897000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>701000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>770000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>789000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>765000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>705000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>665000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>87000</v>
+        <v>99000</v>
       </c>
       <c r="E22" s="3">
         <v>87000</v>
       </c>
       <c r="F22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="G22" s="3">
         <v>61000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>23000</v>
       </c>
       <c r="P22" s="3">
         <v>23000</v>
       </c>
       <c r="Q22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="R22" s="3">
         <v>22000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>29000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>32000</v>
       </c>
       <c r="U22" s="3">
         <v>32000</v>
       </c>
       <c r="V22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="W22" s="3">
         <v>30000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>28000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>24000</v>
       </c>
       <c r="Y22" s="3">
         <v>24000</v>
       </c>
       <c r="Z22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>18000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>21000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>18000</v>
       </c>
       <c r="AC22" s="3">
         <v>18000</v>
       </c>
       <c r="AD22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="AE22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>949000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1029000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>778000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>608000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>855000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>578000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>514000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>675000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>779000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>783000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>635000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>686000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>362000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>655000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>363000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>755000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>871000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>845000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>710000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>805000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>715000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>523000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>596000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>622000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>599000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>548000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>508000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E24" s="3">
         <v>223000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>134000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>199000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>148000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>155000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>114000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>134000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>167000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>172000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>125000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>182000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>93000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>127000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>139000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>186000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>176000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>171000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>141000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>155000</v>
-      </c>
-      <c r="X24" s="3">
-        <v>124000</v>
       </c>
       <c r="Y24" s="3">
         <v>124000</v>
       </c>
       <c r="Z24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="AA24" s="3">
         <v>165000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>158000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>143000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>112000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E26" s="3">
         <v>806000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>644000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>409000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>707000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>423000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>541000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>612000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>611000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>510000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>504000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>269000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>528000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>298000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>616000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>685000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>669000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>539000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>664000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>560000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>399000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>472000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>457000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>441000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>405000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>396000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E27" s="3">
         <v>790000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>631000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>702000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>418000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>394000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>534000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>603000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>501000</v>
       </c>
       <c r="N27" s="3">
         <v>501000</v>
       </c>
       <c r="O27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="P27" s="3">
         <v>276000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>511000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>622000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>675000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>663000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>508000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>658000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>551000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>399000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>507000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>453000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>424000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>396000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>378000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2460,17 +2521,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2478,23 +2539,23 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>71000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>34000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-6000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2508,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,180 +2747,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-90000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-63000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-43000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-45000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-37000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-73000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-41000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-49000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-31000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-82000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-52000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-78000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-21000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E33" s="3">
         <v>790000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>631000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>702000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>418000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>394000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>534000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>603000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>501000</v>
       </c>
       <c r="N33" s="3">
         <v>501000</v>
       </c>
       <c r="O33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="P33" s="3">
         <v>276000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>511000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>622000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>675000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>663000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>579000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>692000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>545000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>325000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-274000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>453000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>424000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>396000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>378000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E35" s="3">
         <v>790000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>631000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>702000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>418000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>394000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>534000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>603000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>501000</v>
       </c>
       <c r="N35" s="3">
         <v>501000</v>
       </c>
       <c r="O35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="P35" s="3">
         <v>276000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>511000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>622000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>675000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>663000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>579000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>692000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>545000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>325000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-274000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>453000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>424000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>396000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>378000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44381</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44290</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,782 +3265,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1802000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1980000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2101000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2499000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2462000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2276000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2592000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2588000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2481000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2958000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3401000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2967000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1751000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1691000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1129000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1560000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1397000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1328000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1303000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1222000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1318000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1207000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1369000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1290000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1293000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1322000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1120000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E42" s="3">
         <v>459000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>472000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>466000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>536000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>527000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>595000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>430000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>438000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>397000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>461000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>345000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>353000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>339000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>341000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>303000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>335000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>246000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>222000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>185000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>214000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>180000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>198000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>154000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>174000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>145000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>260000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5863000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5834000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5202000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4799000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4156000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4368000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3990000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4152000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4132000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4209000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3820000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3628000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3441000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3505000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3670000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3934000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4179000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4025000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3866000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3929000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4095000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3845000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3618000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3810000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3553000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3247000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3025000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6026000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5878000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5603000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5543000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4765000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4586000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4355000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4322000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4076000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3753000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3425000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3470000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3655000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3579000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3486000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3821000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3896000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3893000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3759000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3831000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3559000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3411000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3166000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3146000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2982000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2894000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2675000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1207000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1217000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1073000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1091000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>843000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>839000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>777000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>828000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>804000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>805000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>790000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>652000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>634000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>676000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>761000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>610000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>643000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>599000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>668000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>696000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>649000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>558000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>577000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>656000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>600000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>551000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>627000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15410000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15368000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14451000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14398000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12762000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12596000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12309000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12320000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11931000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12122000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11897000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11062000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9834000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9790000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9387000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10228000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10450000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10091000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9818000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9863000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9835000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9201000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8928000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9056000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8602000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8159000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7707000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1860000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1759000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1826000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1544000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1592000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1538000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1543000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1494000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1592000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1441000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1418000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1362000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1237000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1250000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1274000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1303000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1222000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1255000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1303000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1288000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1156000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1213000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1162000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1059000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>946000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6237000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6079000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6013000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5672000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4819000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4821000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4866000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4640000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4632000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4662000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4693000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4087000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4067000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4128000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4741000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4502000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4511000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4482000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4096000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3870000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3824000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3892000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3927000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3816000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3787000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3802000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3800000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4988000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5005000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5030000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4831000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2445000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2203000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2187000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2210000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2233000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2254000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2256000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2278000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2301000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2248000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2289000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2310000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2026000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2020000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2035000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2060000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2019000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2045000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2055000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>827000</v>
       </c>
       <c r="AB49" s="3">
         <v>827000</v>
       </c>
       <c r="AC49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="AD49" s="3">
         <v>812000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,94 +4242,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3239000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3121000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3046000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3042000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2907000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2910000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2810000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2350000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2318000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2332000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2337000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2723000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2750000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2606000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2083000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2056000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1993000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1950000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1891000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1944000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1934000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1966000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2009000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1907000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1882000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1787000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1746000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31735000</v>
+      </c>
+      <c r="E54" s="3">
         <v>31433000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30299000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29769000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24477000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24122000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23710000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23063000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22608000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22962000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22624000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21568000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20314000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20076000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19737000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20346000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20254000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19846000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19062000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18992000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18915000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18392000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18075000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17992000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>16260000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>15634000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>15011000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,524 +4577,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4308000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4636000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4252000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3405000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3497000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3021000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3210000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3172000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3279000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2820000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2597000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2281000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2648000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2534000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2830000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2991000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3018000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2822000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2980000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2981000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2854000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2579000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2486000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2300000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2168000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1854000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2611000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3343000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3357000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2665000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>935000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>623000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>580000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>340000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>311000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>471000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>554000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>503000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2202000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1771000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>791000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1042000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>599000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>816000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>879000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>902000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>906000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>706000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>418000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>640000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>233000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>369000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>288000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4126000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3944000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3812000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3865000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3331000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3392000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3483000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3311000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3121000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2910000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2961000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2609000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2433000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2563000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2935000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2853000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2699000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2593000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2683000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2534000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2217000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2272000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2680000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2632000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2361000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2125000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2183000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11045000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11923000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11421000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10530000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7671000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7512000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7084000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6861000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6604000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6660000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6335000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5709000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6916000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6982000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6260000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6725000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6289000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6427000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6384000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6416000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6104000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5832000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5677000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5758000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4894000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4662000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4325000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5089000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4409000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4498000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5450000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3490000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3502000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3579000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3602000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>3620000</v>
       </c>
       <c r="L61" s="3">
         <v>3620000</v>
       </c>
       <c r="M61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="N61" s="3">
         <v>3610000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3609000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1639000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1580000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1576000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1619000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1624000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1605000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1597000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1563000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1556000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1571000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1588000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1615000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1564000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1576000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1568000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4245000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4220000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4155000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4179000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3661000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3745000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3646000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3597000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3591000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3651000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3690000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3609000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3629000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3496000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3436000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3249000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3145000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3087000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2822000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2953000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3061000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2693000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2646000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2058000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1980000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1920000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1944000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21398000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21810000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21324000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21389000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15739000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15686000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15236000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14981000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14742000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14853000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14562000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13868000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13122000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13008000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12230000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12536000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11976000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12026000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11714000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11801000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11616000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10998000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10816000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10363000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8767000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8469000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8136000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,94 +5854,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19102000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18605000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18037000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17628000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17450000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16952000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16741000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16555000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16228000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15825000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15419000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15118000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14811000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14728000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14416000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14315000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13897000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13401000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12917000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12519000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12009000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11641000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11464000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11791000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11517000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11265000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>11040000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10337000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9623000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8975000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8380000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8738000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8436000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8474000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8082000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7866000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8109000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8062000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7700000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7192000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7068000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7507000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7810000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8278000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7820000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7348000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7191000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7299000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7394000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7259000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7629000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7493000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7165000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6875000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44381</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44290</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E81" s="3">
         <v>790000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>631000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>702000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>418000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>394000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>534000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>603000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>501000</v>
       </c>
       <c r="N81" s="3">
         <v>501000</v>
       </c>
       <c r="O81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="P81" s="3">
         <v>276000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>511000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>622000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>675000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>663000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>579000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>692000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>545000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>325000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-274000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>453000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>424000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>396000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>378000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E83" s="3">
         <v>246000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>240000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>216000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>167000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>161000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>165000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>160000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>167000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>170000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>174000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>166000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>165000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>168000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>179000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>178000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>158000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>157000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>155000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>148000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>154000</v>
       </c>
       <c r="X83" s="3">
         <v>154000</v>
       </c>
       <c r="Y83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>150000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>149000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>145000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>139000</v>
       </c>
       <c r="AC83" s="3">
         <v>139000</v>
       </c>
       <c r="AD83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="AE83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E89" s="3">
         <v>495000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>817000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>382000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>599000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>164000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>732000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>569000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>616000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>339000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1142000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1223000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>379000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>838000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1123000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>808000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>412000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>990000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>915000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>590000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-117000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>806000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>645000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>447000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>379000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>625000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-193000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-419000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-222000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-160000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-115000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-388000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-164000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-125000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-260000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-116000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-77000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-305000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-153000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-133000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-109000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-348000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-175000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-114000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-72000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-224000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-101000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-108000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-480000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-378000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-228000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-676000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2920000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-566000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-595000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-132000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-121000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-382000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-103000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-135000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-321000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-418000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-340000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-455000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-283000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-266000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-626000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-133000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-327000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,13 +7651,14 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-222000</v>
+        <v>-223000</v>
       </c>
       <c r="E96" s="3">
         <v>-222000</v>
@@ -7433,79 +7667,82 @@
         <v>-222000</v>
       </c>
       <c r="G96" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-204000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-207000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-208000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-207000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-197000</v>
       </c>
       <c r="L96" s="3">
         <v>-197000</v>
       </c>
       <c r="M96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-200000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-194000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-193000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-195000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-199000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-179000</v>
       </c>
       <c r="T96" s="3">
         <v>-179000</v>
       </c>
       <c r="U96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-181000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-182000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-177000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-179000</v>
       </c>
       <c r="Z96" s="3">
         <v>-179000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-171000</v>
       </c>
       <c r="AC96" s="3">
         <v>-171000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-240000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-363000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-442000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2502000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>106000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-497000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-148000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-357000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-977000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-745000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-284000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>104000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>226000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>234000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-897000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-487000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-364000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-347000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-440000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-707000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-201000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-474000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-380000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-164000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-368000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-25000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-97000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>73000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>47000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>27000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>27000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-42000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>48000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-51000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-55000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-35000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>31000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-14000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-21000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-78000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>43000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>13000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>34000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>37000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>14000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-61000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-121000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-398000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>37000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>186000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-316000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>107000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-477000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-443000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>434000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1216000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>60000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>562000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-431000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>163000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>69000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>25000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>81000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-96000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>111000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-162000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>79000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-29000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>202000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-131000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>206000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44472</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44381</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44290</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8431000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8638000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8453000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7770000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7333000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6586000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6385000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5850000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5968000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6111000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6092000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5830000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5118000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3852000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5011000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5578000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5768000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6221000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6004000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6126000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5943000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6132000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5570000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5476000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5285000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5078000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4589000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4503000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4187000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6360000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6490000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6424000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5951000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5693000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4900000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4794000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4533000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4554000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4633000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4606000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4469000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3769000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2962000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3717000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4265000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4274000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4580000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4472000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4580000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4392000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4692000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4370000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4100000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3944000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3827000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3457000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3383000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3108000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2071000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2148000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2029000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1819000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1640000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1686000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1591000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1317000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1414000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1478000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1486000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1361000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1349000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>890000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1294000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1313000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1494000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1641000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1532000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1546000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1551000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1440000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1200000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1376000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1341000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1251000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1132000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1120000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1079000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,97 +1098,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E12" s="3">
         <v>384000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>350000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>333000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>348000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>299000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>298000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>288000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>266000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>276000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>260000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>82000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>59000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>70000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>93000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>65000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>93000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>81000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>90000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>229000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>219000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>210000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>208000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>213000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>175000</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>158000</v>
       </c>
       <c r="AD12" s="3">
         <v>158000</v>
       </c>
       <c r="AE12" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AF12" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1263,8 +1280,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1275,85 +1295,88 @@
         <v>1000</v>
       </c>
       <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-44000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>137000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>121000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>20000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4000</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="3">
         <v>1000</v>
       </c>
       <c r="AD14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE14" s="3">
         <v>-13000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,61 +1384,61 @@
         <v>34000</v>
       </c>
       <c r="E15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F15" s="3">
         <v>32000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>31000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5000</v>
       </c>
       <c r="J15" s="3">
         <v>5000</v>
       </c>
       <c r="K15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L15" s="3">
         <v>6000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>179000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>170000</v>
       </c>
       <c r="P15" s="3">
         <v>170000</v>
       </c>
       <c r="Q15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="R15" s="3">
         <v>173000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>183000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>182000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>163000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>161000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>159000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>5000</v>
       </c>
       <c r="X15" s="3">
         <v>5000</v>
@@ -1427,13 +1450,13 @@
         <v>5000</v>
       </c>
       <c r="AA15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AB15" s="3">
         <v>4000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>2000</v>
       </c>
       <c r="AD15" s="3">
         <v>2000</v>
@@ -1441,8 +1464,11 @@
       <c r="AE15" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7481000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7641000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7427000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6968000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6707000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5689000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5781000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5355000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5302000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5376000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5282000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5201000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4448000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3516000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4377000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5224000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5069000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5373000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5205000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5395000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5140000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5410000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5040000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4890000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4663000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4492000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4049000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3979000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3803000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>950000</v>
+      </c>
+      <c r="E18" s="3">
         <v>997000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1026000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>802000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>626000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>897000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>604000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>495000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>666000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>735000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>810000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>629000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>670000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>336000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>634000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>354000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>699000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>848000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>799000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>731000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>803000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>722000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>530000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>586000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>622000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>586000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>540000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>524000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>384000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,453 +1715,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="3">
         <v>51000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>90000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>63000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>43000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>45000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>73000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>41000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>49000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>44000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>31000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>82000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>52000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>78000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>32000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>21000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>17000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>18000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>34000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>26000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1305000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1362000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1105000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>885000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1056000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>756000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>705000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>863000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>975000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>981000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>838000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>877000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>550000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>846000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>564000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>959000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1058000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1034000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>897000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>983000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>897000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>701000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>770000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>789000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>765000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>705000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>665000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>530000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E22" s="3">
         <v>99000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>87000</v>
       </c>
       <c r="F22" s="3">
         <v>87000</v>
       </c>
       <c r="G22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="H22" s="3">
         <v>61000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>23000</v>
       </c>
       <c r="Q22" s="3">
         <v>23000</v>
       </c>
       <c r="R22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="S22" s="3">
         <v>22000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>32000</v>
       </c>
       <c r="V22" s="3">
         <v>32000</v>
       </c>
       <c r="W22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="X22" s="3">
         <v>30000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>28000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>24000</v>
       </c>
       <c r="Z22" s="3">
         <v>24000</v>
       </c>
       <c r="AA22" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>18000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>21000</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>18000</v>
       </c>
       <c r="AD22" s="3">
         <v>18000</v>
       </c>
       <c r="AE22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="AF22" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>878000</v>
+      </c>
+      <c r="E23" s="3">
         <v>949000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1029000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>778000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>608000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>855000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>578000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>514000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>675000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>779000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>783000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>635000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>686000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>362000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>655000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>363000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>755000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>871000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>845000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>710000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>805000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>715000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>523000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>596000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>622000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>599000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>548000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>508000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E24" s="3">
         <v>212000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>223000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>134000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>199000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>148000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>155000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>114000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>134000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>167000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>172000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>125000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>182000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>93000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>127000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>65000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>139000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>186000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>176000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>171000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>141000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>155000</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>124000</v>
       </c>
       <c r="Z24" s="3">
         <v>124000</v>
       </c>
       <c r="AA24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="AB24" s="3">
         <v>165000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>158000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>143000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>112000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E26" s="3">
         <v>737000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>806000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>644000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>409000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>707000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>423000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>541000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>612000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>611000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>510000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>504000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>269000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>528000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>298000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>616000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>685000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>669000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>539000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>664000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>560000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>399000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>472000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>457000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>441000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>405000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>396000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E27" s="3">
         <v>720000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>790000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>631000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>702000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>418000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>394000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>534000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>603000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>501000</v>
       </c>
       <c r="O27" s="3">
         <v>501000</v>
       </c>
       <c r="P27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="Q27" s="3">
         <v>276000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>511000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>622000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>675000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>663000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>508000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>658000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>551000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>399000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>507000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>453000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>424000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>396000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>378000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2524,17 +2585,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2542,23 +2603,23 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>71000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>34000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-781000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>10</v>
@@ -2572,8 +2633,11 @@
       <c r="AE29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,186 +2817,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-51000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-90000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-63000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-43000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-45000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-73000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-41000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-44000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-31000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-82000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-52000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-78000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-32000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-18000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-34000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E33" s="3">
         <v>720000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>790000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>631000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>702000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>418000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>394000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>534000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>603000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>501000</v>
       </c>
       <c r="O33" s="3">
         <v>501000</v>
       </c>
       <c r="P33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="Q33" s="3">
         <v>276000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>511000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>622000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>675000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>663000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>579000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>692000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>545000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>325000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-274000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>453000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>424000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>396000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>378000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E35" s="3">
         <v>720000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>790000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>631000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>702000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>418000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>394000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>534000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>603000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>501000</v>
       </c>
       <c r="O35" s="3">
         <v>501000</v>
       </c>
       <c r="P35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="Q35" s="3">
         <v>276000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>511000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>622000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>675000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>663000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>579000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>692000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>545000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>325000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-274000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>453000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>424000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>396000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>378000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44472</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44381</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44290</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,809 +3352,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1802000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1980000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2101000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2499000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2462000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2276000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2592000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2588000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2481000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2958000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3401000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2967000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1751000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1691000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1129000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1560000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1397000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1328000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1303000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1222000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1318000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1207000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1369000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1290000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1293000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1322000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1120000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1251000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E42" s="3">
         <v>512000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>459000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>472000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>466000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>536000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>527000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>595000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>430000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>438000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>397000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>461000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>345000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>353000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>339000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>341000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>303000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>335000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>246000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>222000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>185000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>214000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>180000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>198000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>154000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>174000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>145000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>260000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5662000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5863000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5834000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5202000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4799000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4156000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4368000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3990000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4152000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4132000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4209000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3820000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3628000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3441000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3505000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3670000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3934000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4179000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4025000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3866000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3929000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4095000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3845000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3618000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3810000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3553000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3247000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3025000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2873000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5906000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6026000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5878000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5603000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5543000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4765000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4586000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4355000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4322000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4076000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3753000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3425000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3470000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3655000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3579000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3486000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3821000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3896000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3893000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3759000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3831000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3559000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3411000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3166000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3146000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2982000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2894000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2675000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1505000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1207000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1217000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1073000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1091000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>843000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>839000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>777000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>828000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>804000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>805000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>790000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>652000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>634000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>676000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>761000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>610000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>643000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>599000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>668000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>696000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>649000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>558000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>577000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>656000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>600000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>551000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>627000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>600000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15912000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15410000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15368000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14451000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14398000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12762000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12596000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12309000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12320000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11931000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12122000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11897000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11062000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9834000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9790000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9387000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10228000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10450000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10091000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9818000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9863000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9835000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9201000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8928000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9056000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8602000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8159000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7707000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>7794000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1785000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1861000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1860000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1759000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1826000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1544000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1592000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1538000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1543000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1494000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1592000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1441000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1418000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1362000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1304000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1237000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1250000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1274000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1303000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1222000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1255000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1303000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1288000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1156000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1213000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1162000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1059000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>946000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1077000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6301000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6237000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6079000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6013000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5672000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4819000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4821000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4866000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4640000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4632000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4662000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4693000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4087000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4067000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4128000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4741000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4502000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4511000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4482000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4096000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3870000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3824000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3892000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3927000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3816000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3787000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3802000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3800000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3677000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4897000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4988000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5005000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5030000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4831000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2445000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2203000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2187000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2210000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2233000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2254000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2256000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2278000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2301000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2248000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2289000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2310000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2026000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2020000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2035000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2060000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2019000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2045000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2055000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2000000</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>827000</v>
       </c>
       <c r="AC49" s="3">
         <v>827000</v>
       </c>
       <c r="AD49" s="3">
+        <v>827000</v>
+      </c>
+      <c r="AE49" s="3">
         <v>812000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3202000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3239000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3121000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3046000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3042000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2907000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2910000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2810000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2350000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2318000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2332000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2337000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2723000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2750000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2606000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2083000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2056000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1993000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1950000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1891000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1944000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1934000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1966000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2009000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1907000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1882000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1787000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1746000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32097000</v>
+      </c>
+      <c r="E54" s="3">
         <v>31735000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>31433000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30299000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29769000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24477000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24122000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23710000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23063000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22608000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22962000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22624000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21568000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20314000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20076000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19737000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20346000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20254000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19846000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19062000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18992000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18915000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18392000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18075000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17992000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>16260000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>15634000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>15011000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>15136000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,542 +4708,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4262000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4308000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4636000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4252000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3405000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3497000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3021000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3210000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3172000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3279000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2820000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2597000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2281000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2648000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2534000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2830000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2991000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3018000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2822000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2980000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2981000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2854000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2579000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2486000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2300000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2168000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1854000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1781000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2514000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2611000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3343000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3357000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2665000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>935000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>623000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>580000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>340000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>311000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>471000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>554000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>503000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2202000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1771000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>791000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1042000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>599000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>816000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>879000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>902000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>906000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>706000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>418000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>640000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>233000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>369000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>288000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>356000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4350000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4126000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3944000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3812000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3865000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3331000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3392000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3483000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3311000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3121000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2910000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2961000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2609000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2433000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2563000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2935000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2853000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2699000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2593000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2683000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2534000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2217000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2272000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2680000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2632000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2361000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2125000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2183000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2171000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11126000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11045000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11923000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11421000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10530000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7671000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7512000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7084000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6861000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6604000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6660000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6335000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5709000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6916000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6982000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6260000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6725000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6289000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6427000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6384000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6416000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6104000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5832000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5677000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5758000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4894000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4662000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4325000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4308000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4950000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5089000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4409000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4498000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5450000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3490000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3502000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3579000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3602000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>3620000</v>
       </c>
       <c r="M61" s="3">
         <v>3620000</v>
       </c>
       <c r="N61" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="O61" s="3">
         <v>3610000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3609000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1639000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1580000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1576000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1619000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1624000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1605000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1597000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1563000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1556000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1571000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1588000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1615000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1564000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1576000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1568000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4343000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4245000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4220000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4155000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4179000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3661000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3745000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3646000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3597000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3591000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3651000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3690000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3609000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3629000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3496000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3436000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3249000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3145000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3087000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2822000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2953000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3061000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2693000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2646000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2058000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1980000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1920000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1944000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1971000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21439000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21398000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21810000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21324000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21389000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15739000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15686000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15236000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14981000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14742000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14853000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14562000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13868000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13122000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13008000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12230000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12536000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11976000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12026000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11714000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11801000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11616000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10998000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10816000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10363000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8767000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8469000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>8136000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>8202000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19520000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19102000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18605000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18037000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17628000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17450000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16952000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16741000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16555000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16228000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15825000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15419000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15118000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14811000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14728000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14416000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14315000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13897000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13401000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12917000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12519000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12009000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11641000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11464000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11791000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11517000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>11265000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>11040000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>10833000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10658000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10337000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9623000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8975000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8380000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8738000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8436000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8474000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8082000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7866000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8109000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8062000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7700000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7192000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7068000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7507000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7810000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8278000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7820000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7348000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7191000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7299000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7394000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7259000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7629000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7493000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7165000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6875000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>6934000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44472</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44381</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44290</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E81" s="3">
         <v>720000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>790000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>631000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>702000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>418000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>394000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>534000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>603000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>501000</v>
       </c>
       <c r="O81" s="3">
         <v>501000</v>
       </c>
       <c r="P81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="Q81" s="3">
         <v>276000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>511000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>622000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>675000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>663000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>579000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>692000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>545000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>325000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-274000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>453000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>424000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>396000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>378000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>289000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,8 +6805,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6616,88 +6815,91 @@
         <v>257000</v>
       </c>
       <c r="E83" s="3">
+        <v>257000</v>
+      </c>
+      <c r="F83" s="3">
         <v>246000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>240000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>216000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>167000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>161000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>165000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>160000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>167000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>170000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>174000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>166000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>165000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>168000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>179000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>178000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>158000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>157000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>155000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>148000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>154000</v>
       </c>
       <c r="Y83" s="3">
         <v>154000</v>
       </c>
       <c r="Z83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>150000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>149000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>145000</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>139000</v>
       </c>
       <c r="AD83" s="3">
         <v>139000</v>
       </c>
       <c r="AE83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="AF83" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1529000</v>
+      </c>
+      <c r="E89" s="3">
         <v>483000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>495000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>817000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>382000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>599000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>164000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>732000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>569000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>616000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>339000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1142000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1223000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>379000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>838000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1123000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>808000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>412000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>990000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>915000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>590000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-117000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>806000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>645000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>447000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>379000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>625000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-221000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-193000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-419000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-222000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-160000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-115000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-388000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-164000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-125000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-260000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-116000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-75000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-305000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-153000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-133000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-109000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-348000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-175000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-114000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-72000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-224000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-100000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-101000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-108000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-480000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-276000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-378000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-228000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-676000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2920000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-566000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-595000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-132000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-121000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-382000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-103000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-321000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-418000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-340000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-71000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-455000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-283000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-266000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-626000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-133000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-27000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-327000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-199000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,16 +7885,17 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-223000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-222000</v>
       </c>
       <c r="F96" s="3">
         <v>-222000</v>
@@ -7670,79 +7904,82 @@
         <v>-222000</v>
       </c>
       <c r="H96" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-204000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-207000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-208000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-207000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-197000</v>
       </c>
       <c r="M96" s="3">
         <v>-197000</v>
       </c>
       <c r="N96" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-200000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-194000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-193000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-195000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-199000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-204000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-179000</v>
       </c>
       <c r="U96" s="3">
         <v>-179000</v>
       </c>
       <c r="V96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-181000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-182000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-177000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-178000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-179000</v>
       </c>
       <c r="AA96" s="3">
         <v>-179000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-172000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-171000</v>
       </c>
       <c r="AD96" s="3">
         <v>-171000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-172000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8251,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-466000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-240000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-363000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-442000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2502000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>106000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-497000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-148000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-357000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-977000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-745000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-284000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>104000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>226000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>234000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-897000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-487000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-364000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-347000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-440000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-707000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-201000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-52000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-474000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-380000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-164000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-368000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-149000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-43000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-97000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>73000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>47000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>27000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-42000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>48000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-51000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-55000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-35000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>31000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-14000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-21000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-78000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>43000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>13000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>34000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>37000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>14000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-61000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-178000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-121000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-398000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>186000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-316000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>107000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-477000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-443000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>434000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1216000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>60000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>562000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-431000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>163000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>69000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>25000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>81000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-96000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>111000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-162000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>79000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-29000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>202000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-131000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>206000</v>
       </c>
     </row>
